--- a/MemoryDays.xlsx
+++ b/MemoryDays.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24240" windowHeight="12585"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24240" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MamoryDays" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4395" uniqueCount="2443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="2442">
   <si>
     <t>s_date</t>
   </si>
@@ -5410,9 +5410,6 @@
     <t xml:space="preserve"> На Литургии Апостолы</t>
   </si>
   <si>
-    <t>12 Евангелие и другие особые случаи</t>
-  </si>
-  <si>
     <t>Ин.20:19-31</t>
   </si>
   <si>
@@ -6874,9 +6871,6 @@
     <t>1 Кор.1:18-2:2; Мф.27:1-38; Лк.23:39-43; Мф.27:39-54; Ин.19:31-37; Мф.27:55-61</t>
   </si>
   <si>
-    <t>12 Евангелий святых страстей Иисуса Христа:  1. Ин.13:31-18:1.  2. Ин.18:1-28.  3. Мф.26:57-75.  4. Ин.18:28-19:16.  5. Мф.27:3-32.  6. Мк.15:16-32.  7. Мф.27:33-54.  8. Лк.23:32-49.  9. Ин.19:25-37.  10. Мк.15:43-47.  11. Ин.19:38-42.  12. Мф.27:62-66.</t>
-  </si>
-  <si>
     <t>Гал.6:14-18; Мф.27:1-56</t>
   </si>
   <si>
@@ -7367,6 +7361,9 @@
   </si>
   <si>
     <t>Прав. Иулиании Лазаревской, Муромской (1604). Сщмч. Феогена, еп Парийского (ок. 320). Прп. Сильвестра Печерского (XII)</t>
+  </si>
+  <si>
+    <t>Двенадцать Евангелий святых страстей Иисуса Христа: Ин.13:31-18:1; Ин.18:1-28; Мф.26:57-75; Ин.18:28-19:16; Мф.27:3-32; Мк.15:16-32; Мф.27:33-54; Лк.23:32-49; Ин.19:25-37; Мк.15:43-47; Ин.19:38-42; Мф.27:62-66</t>
   </si>
 </sst>
 </file>
@@ -8331,7 +8328,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F2789" tableType="xml" totalsRowShown="0" headerRowDxfId="6" connectionId="2">
-  <autoFilter ref="A1:F2789"/>
+  <autoFilter ref="A1:F2789">
+    <filterColumn colId="3"/>
+  </autoFilter>
   <sortState ref="A2:F772">
     <sortCondition ref="F1:F772"/>
   </sortState>
@@ -8646,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1385" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1294" sqref="E1294"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2550" sqref="E2550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10094,7 +10093,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F72" s="38">
         <v>4</v>
@@ -12534,7 +12533,7 @@
         <v>26</v>
       </c>
       <c r="E194" s="51" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="F194" s="1">
         <v>5</v>
@@ -18574,7 +18573,7 @@
         <v>21</v>
       </c>
       <c r="E496" s="51" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="F496">
         <v>7</v>
@@ -23074,7 +23073,7 @@
         <v>14</v>
       </c>
       <c r="E721" s="58" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="F721" s="15">
         <v>8</v>
@@ -23114,7 +23113,7 @@
         <v>14</v>
       </c>
       <c r="E723" s="58" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="F723" s="15">
         <v>8</v>
@@ -23234,7 +23233,7 @@
         <v>25</v>
       </c>
       <c r="E729" s="58" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="F729" s="15">
         <v>8</v>
@@ -23254,7 +23253,7 @@
         <v>25</v>
       </c>
       <c r="E730" s="58" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="F730" s="15">
         <v>8</v>
@@ -23294,7 +23293,7 @@
         <v>25</v>
       </c>
       <c r="E732" s="58" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F732" s="15">
         <v>8</v>
@@ -23574,7 +23573,7 @@
         <v>14</v>
       </c>
       <c r="E746" s="55" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="F746" s="11">
         <v>8</v>
@@ -23594,7 +23593,7 @@
         <v>21</v>
       </c>
       <c r="E747" s="55" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="F747" s="11">
         <v>8</v>
@@ -23674,7 +23673,7 @@
         <v>35</v>
       </c>
       <c r="E751" s="55" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="F751" s="11">
         <v>8</v>
@@ -23694,7 +23693,7 @@
         <v>38</v>
       </c>
       <c r="E752" s="55" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="F752" s="11">
         <v>8</v>
@@ -23714,7 +23713,7 @@
         <v>42</v>
       </c>
       <c r="E753" s="55" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="F753" s="11">
         <v>8</v>
@@ -23834,7 +23833,7 @@
         <v>70</v>
       </c>
       <c r="E759" s="52" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="F759" s="13">
         <v>8</v>
@@ -23854,7 +23853,7 @@
         <v>24</v>
       </c>
       <c r="E760" s="61" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="F760" s="20">
         <v>8</v>
@@ -23894,7 +23893,7 @@
         <v>23</v>
       </c>
       <c r="E762" s="61" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="F762" s="20">
         <v>8</v>
@@ -23934,7 +23933,7 @@
         <v>11</v>
       </c>
       <c r="E764" s="61" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F764" s="20">
         <v>8</v>
@@ -23954,7 +23953,7 @@
         <v>14</v>
       </c>
       <c r="E765" s="61" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="F765" s="20">
         <v>8</v>
@@ -23994,7 +23993,7 @@
         <v>14</v>
       </c>
       <c r="E767" s="61" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="F767" s="20">
         <v>8</v>
@@ -24094,7 +24093,7 @@
         <v>-36</v>
       </c>
       <c r="E772" s="49" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F772" s="12">
         <v>9</v>
@@ -24114,7 +24113,7 @@
         <v>-29</v>
       </c>
       <c r="E773" s="49" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="F773" s="12">
         <v>9</v>
@@ -24134,7 +24133,7 @@
         <v>-22</v>
       </c>
       <c r="E774" s="49" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="F774" s="12">
         <v>9</v>
@@ -24834,7 +24833,7 @@
         <v>12</v>
       </c>
       <c r="E809" s="50" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="F809">
         <v>17</v>
@@ -24854,7 +24853,7 @@
         <v>14</v>
       </c>
       <c r="E810" s="50" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F810">
         <v>17</v>
@@ -24874,7 +24873,7 @@
         <v>16</v>
       </c>
       <c r="E811" s="50" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="F811">
         <v>17</v>
@@ -24894,7 +24893,7 @@
         <v>18</v>
       </c>
       <c r="E812" s="50" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="F812">
         <v>17</v>
@@ -24914,7 +24913,7 @@
         <v>20</v>
       </c>
       <c r="E813" s="50" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F813">
         <v>17</v>
@@ -24934,7 +24933,7 @@
         <v>24</v>
       </c>
       <c r="E814" s="50" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="F814">
         <v>17</v>
@@ -24954,7 +24953,7 @@
         <v>25</v>
       </c>
       <c r="E815" s="50" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="F815">
         <v>17</v>
@@ -24974,7 +24973,7 @@
         <v>26</v>
       </c>
       <c r="E816" s="50" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F816">
         <v>17</v>
@@ -24994,7 +24993,7 @@
         <v>1</v>
       </c>
       <c r="E817" s="50" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="F817">
         <v>17</v>
@@ -25014,7 +25013,7 @@
         <v>2</v>
       </c>
       <c r="E818" s="50" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F818">
         <v>17</v>
@@ -25034,7 +25033,7 @@
         <v>3</v>
       </c>
       <c r="E819" s="50" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="F819">
         <v>17</v>
@@ -25054,7 +25053,7 @@
         <v>4</v>
       </c>
       <c r="E820" s="50" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="F820">
         <v>17</v>
@@ -25074,7 +25073,7 @@
         <v>5</v>
       </c>
       <c r="E821" s="50" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="F821">
         <v>17</v>
@@ -25154,7 +25153,7 @@
         <v>16</v>
       </c>
       <c r="E825" s="50" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="F825">
         <v>17</v>
@@ -25174,7 +25173,7 @@
         <v>21</v>
       </c>
       <c r="E826" s="50" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="F826">
         <v>17</v>
@@ -25194,7 +25193,7 @@
         <v>28</v>
       </c>
       <c r="E827" s="50" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="F827">
         <v>17</v>
@@ -25214,7 +25213,7 @@
         <v>29</v>
       </c>
       <c r="E828" s="50" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F828">
         <v>17</v>
@@ -25234,7 +25233,7 @@
         <v>2</v>
       </c>
       <c r="E829" s="50" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="F829">
         <v>17</v>
@@ -25254,7 +25253,7 @@
         <v>3</v>
       </c>
       <c r="E830" s="50" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="F830">
         <v>17</v>
@@ -25274,7 +25273,7 @@
         <v>5</v>
       </c>
       <c r="E831" s="50" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F831">
         <v>17</v>
@@ -25294,7 +25293,7 @@
         <v>6</v>
       </c>
       <c r="E832" s="50" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="F832">
         <v>17</v>
@@ -25314,7 +25313,7 @@
         <v>8</v>
       </c>
       <c r="E833" s="50" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="F833">
         <v>17</v>
@@ -25334,7 +25333,7 @@
         <v>11</v>
       </c>
       <c r="E834" s="50" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F834">
         <v>17</v>
@@ -25354,7 +25353,7 @@
         <v>14</v>
       </c>
       <c r="E835" s="50" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F835">
         <v>17</v>
@@ -25374,7 +25373,7 @@
         <v>18</v>
       </c>
       <c r="E836" s="50" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="F836">
         <v>17</v>
@@ -25394,7 +25393,7 @@
         <v>20</v>
       </c>
       <c r="E837" s="50" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="F837">
         <v>17</v>
@@ -25414,7 +25413,7 @@
         <v>22</v>
       </c>
       <c r="E838" s="50" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="F838">
         <v>17</v>
@@ -25434,7 +25433,7 @@
         <v>23</v>
       </c>
       <c r="E839" s="50" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="F839">
         <v>17</v>
@@ -25454,7 +25453,7 @@
         <v>24</v>
       </c>
       <c r="E840" s="50" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="F840">
         <v>17</v>
@@ -25474,7 +25473,7 @@
         <v>26</v>
       </c>
       <c r="E841" s="50" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="F841">
         <v>17</v>
@@ -25494,7 +25493,7 @@
         <v>28</v>
       </c>
       <c r="E842" s="50" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="F842">
         <v>17</v>
@@ -25514,7 +25513,7 @@
         <v>29</v>
       </c>
       <c r="E843" s="50" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="F843">
         <v>17</v>
@@ -25534,7 +25533,7 @@
         <v>30</v>
       </c>
       <c r="E844" s="50" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="F844">
         <v>17</v>
@@ -25554,7 +25553,7 @@
         <v>2</v>
       </c>
       <c r="E845" s="50" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="F845">
         <v>17</v>
@@ -25574,7 +25573,7 @@
         <v>4</v>
       </c>
       <c r="E846" s="50" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="F846">
         <v>17</v>
@@ -25594,7 +25593,7 @@
         <v>5</v>
       </c>
       <c r="E847" s="50" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="F847">
         <v>17</v>
@@ -25614,7 +25613,7 @@
         <v>6</v>
       </c>
       <c r="E848" s="50" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F848">
         <v>17</v>
@@ -25634,7 +25633,7 @@
         <v>7</v>
       </c>
       <c r="E849" s="50" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F849">
         <v>17</v>
@@ -25654,7 +25653,7 @@
         <v>8</v>
       </c>
       <c r="E850" s="50" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F850">
         <v>17</v>
@@ -25674,7 +25673,7 @@
         <v>9</v>
       </c>
       <c r="E851" s="50" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F851">
         <v>17</v>
@@ -25694,7 +25693,7 @@
         <v>10</v>
       </c>
       <c r="E852" s="50" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F852">
         <v>17</v>
@@ -25714,7 +25713,7 @@
         <v>11</v>
       </c>
       <c r="E853" s="50" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="F853">
         <v>17</v>
@@ -25734,7 +25733,7 @@
         <v>16</v>
       </c>
       <c r="E854" s="50" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="F854">
         <v>17</v>
@@ -25774,7 +25773,7 @@
         <v>20</v>
       </c>
       <c r="E856" s="50" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F856">
         <v>17</v>
@@ -25794,7 +25793,7 @@
         <v>23</v>
       </c>
       <c r="E857" s="50" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="F857">
         <v>17</v>
@@ -25814,7 +25813,7 @@
         <v>28</v>
       </c>
       <c r="E858" s="50" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="F858">
         <v>17</v>
@@ -25834,7 +25833,7 @@
         <v>2</v>
       </c>
       <c r="E859" s="50" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="F859">
         <v>17</v>
@@ -25854,7 +25853,7 @@
         <v>4</v>
       </c>
       <c r="E860" s="50" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="F860">
         <v>17</v>
@@ -25874,7 +25873,7 @@
         <v>8</v>
       </c>
       <c r="E861" s="50" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F861">
         <v>17</v>
@@ -25894,7 +25893,7 @@
         <v>13</v>
       </c>
       <c r="E862" s="50" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="F862">
         <v>17</v>
@@ -25914,7 +25913,7 @@
         <v>14</v>
       </c>
       <c r="E863" s="50" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="F863">
         <v>17</v>
@@ -25934,7 +25933,7 @@
         <v>16</v>
       </c>
       <c r="E864" s="50" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F864">
         <v>17</v>
@@ -25954,7 +25953,7 @@
         <v>17</v>
       </c>
       <c r="E865" s="50" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="F865">
         <v>17</v>
@@ -25994,7 +25993,7 @@
         <v>19</v>
       </c>
       <c r="E867" s="50" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="F867">
         <v>17</v>
@@ -26014,7 +26013,7 @@
         <v>22</v>
       </c>
       <c r="E868" s="50" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="F868">
         <v>17</v>
@@ -26034,7 +26033,7 @@
         <v>24</v>
       </c>
       <c r="E869" s="50" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="F869">
         <v>17</v>
@@ -26074,7 +26073,7 @@
         <v>1</v>
       </c>
       <c r="E871" s="50" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="F871">
         <v>17</v>
@@ -26094,7 +26093,7 @@
         <v>2</v>
       </c>
       <c r="E872" s="50" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F872">
         <v>17</v>
@@ -26114,7 +26113,7 @@
         <v>3</v>
       </c>
       <c r="E873" s="50" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="F873">
         <v>17</v>
@@ -26134,7 +26133,7 @@
         <v>4</v>
       </c>
       <c r="E874" s="50" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="F874">
         <v>17</v>
@@ -26154,7 +26153,7 @@
         <v>5</v>
       </c>
       <c r="E875" s="50" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="F875">
         <v>17</v>
@@ -26174,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="E876" s="50" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="F876">
         <v>17</v>
@@ -26194,7 +26193,7 @@
         <v>8</v>
       </c>
       <c r="E877" s="50" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="F877">
         <v>17</v>
@@ -26214,7 +26213,7 @@
         <v>14</v>
       </c>
       <c r="E878" s="50" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="F878">
         <v>17</v>
@@ -26234,7 +26233,7 @@
         <v>15</v>
       </c>
       <c r="E879" s="50" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="F879">
         <v>17</v>
@@ -26254,7 +26253,7 @@
         <v>16</v>
       </c>
       <c r="E880" s="50" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="F880">
         <v>17</v>
@@ -26274,7 +26273,7 @@
         <v>17</v>
       </c>
       <c r="E881" s="50" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="F881">
         <v>17</v>
@@ -26294,7 +26293,7 @@
         <v>18</v>
       </c>
       <c r="E882" s="50" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="F882">
         <v>17</v>
@@ -26314,7 +26313,7 @@
         <v>23</v>
       </c>
       <c r="E883" s="50" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="F883">
         <v>17</v>
@@ -26334,7 +26333,7 @@
         <v>24</v>
       </c>
       <c r="E884" s="50" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="F884">
         <v>17</v>
@@ -26354,7 +26353,7 @@
         <v>1</v>
       </c>
       <c r="E885" s="50" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="F885">
         <v>17</v>
@@ -26374,7 +26373,7 @@
         <v>3</v>
       </c>
       <c r="E886" s="50" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="F886">
         <v>17</v>
@@ -26394,7 +26393,7 @@
         <v>7</v>
       </c>
       <c r="E887" s="50" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="F887">
         <v>17</v>
@@ -26414,7 +26413,7 @@
         <v>9</v>
       </c>
       <c r="E888" s="50" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="F888">
         <v>17</v>
@@ -26434,7 +26433,7 @@
         <v>12</v>
       </c>
       <c r="E889" s="50" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="F889">
         <v>17</v>
@@ -26454,7 +26453,7 @@
         <v>13</v>
       </c>
       <c r="E890" s="50" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="F890">
         <v>17</v>
@@ -26474,7 +26473,7 @@
         <v>14</v>
       </c>
       <c r="E891" s="50" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="F891">
         <v>17</v>
@@ -26494,7 +26493,7 @@
         <v>15</v>
       </c>
       <c r="E892" s="50" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="F892">
         <v>17</v>
@@ -26514,7 +26513,7 @@
         <v>17</v>
       </c>
       <c r="E893" s="50" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F893">
         <v>17</v>
@@ -26534,7 +26533,7 @@
         <v>22</v>
       </c>
       <c r="E894" s="50" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="F894">
         <v>17</v>
@@ -26554,7 +26553,7 @@
         <v>30</v>
       </c>
       <c r="E895" s="50" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="F895">
         <v>17</v>
@@ -26574,7 +26573,7 @@
         <v>2</v>
       </c>
       <c r="E896" s="50" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="F896">
         <v>17</v>
@@ -26594,7 +26593,7 @@
         <v>7</v>
       </c>
       <c r="E897" s="50" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="F897">
         <v>17</v>
@@ -26614,7 +26613,7 @@
         <v>11</v>
       </c>
       <c r="E898" s="50" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="F898">
         <v>17</v>
@@ -26634,7 +26633,7 @@
         <v>12</v>
       </c>
       <c r="E899" s="50" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="F899">
         <v>17</v>
@@ -26674,7 +26673,7 @@
         <v>19</v>
       </c>
       <c r="E901" s="50" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="F901">
         <v>17</v>
@@ -26714,7 +26713,7 @@
         <v>7</v>
       </c>
       <c r="E903" s="50" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="F903">
         <v>17</v>
@@ -26734,7 +26733,7 @@
         <v>9</v>
       </c>
       <c r="E904" s="50" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="F904">
         <v>17</v>
@@ -26754,7 +26753,7 @@
         <v>20</v>
       </c>
       <c r="E905" s="50" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="F905">
         <v>17</v>
@@ -26774,7 +26773,7 @@
         <v>26</v>
       </c>
       <c r="E906" s="50" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="F906">
         <v>17</v>
@@ -26814,7 +26813,7 @@
         <v>2</v>
       </c>
       <c r="E908" s="50" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="F908">
         <v>18</v>
@@ -30074,7 +30073,7 @@
         <v>21</v>
       </c>
       <c r="E1071" s="50" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="F1071">
         <v>18</v>
@@ -30734,7 +30733,7 @@
         <v>25</v>
       </c>
       <c r="E1104" s="50" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="F1104">
         <v>18</v>
@@ -30954,7 +30953,7 @@
         <v>5</v>
       </c>
       <c r="E1115" s="62" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="F1115" s="10">
         <v>18</v>
@@ -31174,7 +31173,7 @@
         <v>18</v>
       </c>
       <c r="E1126" s="50" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="F1126">
         <v>18</v>
@@ -40294,7 +40293,7 @@
         <v>6</v>
       </c>
       <c r="E1582" s="50" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="F1582">
         <v>100</v>
@@ -40334,7 +40333,7 @@
         <v>25</v>
       </c>
       <c r="E1584" s="50" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="F1584">
         <v>100</v>
@@ -40354,7 +40353,7 @@
         <v>5</v>
       </c>
       <c r="E1585" s="64" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F1585" s="39">
         <v>214</v>
@@ -40374,7 +40373,7 @@
         <v>5</v>
       </c>
       <c r="E1586" s="64" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F1586" s="39">
         <v>214</v>
@@ -40394,7 +40393,7 @@
         <v>5</v>
       </c>
       <c r="E1587" s="65" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F1587" s="39">
         <v>214</v>
@@ -40414,7 +40413,7 @@
         <v>5</v>
       </c>
       <c r="E1588" s="65" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F1588" s="39">
         <v>214</v>
@@ -40434,7 +40433,7 @@
         <v>5</v>
       </c>
       <c r="E1589" s="65" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F1589" s="39">
         <v>214</v>
@@ -40454,7 +40453,7 @@
         <v>5</v>
       </c>
       <c r="E1590" s="65" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F1590" s="39">
         <v>214</v>
@@ -40474,7 +40473,7 @@
         <v>5</v>
       </c>
       <c r="E1591" s="65" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F1591" s="39">
         <v>214</v>
@@ -40494,7 +40493,7 @@
         <v>5</v>
       </c>
       <c r="E1592" s="65" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F1592" s="39">
         <v>217</v>
@@ -40514,7 +40513,7 @@
         <v>5</v>
       </c>
       <c r="E1593" s="64" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F1593" s="39">
         <v>211</v>
@@ -40534,7 +40533,7 @@
         <v>5</v>
       </c>
       <c r="E1594" s="64" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="F1594" s="39">
         <v>213</v>
@@ -40554,7 +40553,7 @@
         <v>5</v>
       </c>
       <c r="E1595" s="64" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="F1595" s="39">
         <v>216</v>
@@ -40574,7 +40573,7 @@
         <v>5</v>
       </c>
       <c r="E1596" s="64" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="F1596" s="39">
         <v>219</v>
@@ -40594,7 +40593,7 @@
         <v>6</v>
       </c>
       <c r="E1597" s="65" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="F1597" s="39">
         <v>212</v>
@@ -40614,7 +40613,7 @@
         <v>6</v>
       </c>
       <c r="E1598" s="65" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="F1598" s="39">
         <v>214</v>
@@ -40634,7 +40633,7 @@
         <v>6</v>
       </c>
       <c r="E1599" s="65" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="F1599" s="39">
         <v>217</v>
@@ -40654,7 +40653,7 @@
         <v>2</v>
       </c>
       <c r="E1600" s="65" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="F1600" s="39">
         <v>212</v>
@@ -40674,7 +40673,7 @@
         <v>2</v>
       </c>
       <c r="E1601" s="65" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="F1601" s="39">
         <v>214</v>
@@ -40694,7 +40693,7 @@
         <v>2</v>
       </c>
       <c r="E1602" s="65" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="F1602" s="39">
         <v>217</v>
@@ -40714,7 +40713,7 @@
         <v>25</v>
       </c>
       <c r="E1603" s="66" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F1603" s="40">
         <v>222</v>
@@ -40734,7 +40733,7 @@
         <v>25</v>
       </c>
       <c r="E1604" s="66" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="F1604" s="40">
         <v>224</v>
@@ -40754,7 +40753,7 @@
         <v>25</v>
       </c>
       <c r="E1605" s="66" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="F1605" s="40">
         <v>227</v>
@@ -40774,7 +40773,7 @@
         <v>6</v>
       </c>
       <c r="E1606" s="65" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="F1606" s="39">
         <v>212</v>
@@ -40794,7 +40793,7 @@
         <v>6</v>
       </c>
       <c r="E1607" s="65" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="F1607" s="39">
         <v>214</v>
@@ -40814,7 +40813,7 @@
         <v>6</v>
       </c>
       <c r="E1608" s="65" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="F1608" s="39">
         <v>217</v>
@@ -40834,7 +40833,7 @@
         <v>15</v>
       </c>
       <c r="E1609" s="66" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F1609" s="40">
         <v>222</v>
@@ -40854,7 +40853,7 @@
         <v>15</v>
       </c>
       <c r="E1610" s="66" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F1610" s="40">
         <v>224</v>
@@ -40874,7 +40873,7 @@
         <v>15</v>
       </c>
       <c r="E1611" s="66" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F1611" s="40">
         <v>227</v>
@@ -40894,7 +40893,7 @@
         <v>8</v>
       </c>
       <c r="E1612" s="66" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F1612" s="40">
         <v>222</v>
@@ -40914,7 +40913,7 @@
         <v>8</v>
       </c>
       <c r="E1613" s="66" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F1613" s="40">
         <v>224</v>
@@ -40934,7 +40933,7 @@
         <v>8</v>
       </c>
       <c r="E1614" s="66" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F1614" s="40">
         <v>227</v>
@@ -40954,7 +40953,7 @@
         <v>14</v>
       </c>
       <c r="E1615" s="65" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="F1615" s="39">
         <v>212</v>
@@ -40974,7 +40973,7 @@
         <v>14</v>
       </c>
       <c r="E1616" s="65" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F1616" s="39">
         <v>214</v>
@@ -40994,7 +40993,7 @@
         <v>14</v>
       </c>
       <c r="E1617" s="65" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="F1617" s="39">
         <v>217</v>
@@ -41014,7 +41013,7 @@
         <v>21</v>
       </c>
       <c r="E1618" s="66" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="F1618" s="40">
         <v>222</v>
@@ -41034,7 +41033,7 @@
         <v>21</v>
       </c>
       <c r="E1619" s="66" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F1619" s="40">
         <v>224</v>
@@ -41054,7 +41053,7 @@
         <v>21</v>
       </c>
       <c r="E1620" s="66" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F1620" s="40">
         <v>227</v>
@@ -41074,7 +41073,7 @@
         <v>24</v>
       </c>
       <c r="E1621" s="65" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F1621" s="39">
         <v>214</v>
@@ -41094,7 +41093,7 @@
         <v>24</v>
       </c>
       <c r="E1622" s="65" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F1622" s="39">
         <v>214</v>
@@ -41114,7 +41113,7 @@
         <v>24</v>
       </c>
       <c r="E1623" s="65" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F1623" s="39">
         <v>214</v>
@@ -41134,7 +41133,7 @@
         <v>24</v>
       </c>
       <c r="E1624" s="65" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F1624" s="39">
         <v>214</v>
@@ -41154,7 +41153,7 @@
         <v>24</v>
       </c>
       <c r="E1625" s="65" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F1625" s="39">
         <v>214</v>
@@ -41214,7 +41213,7 @@
         <v>24</v>
       </c>
       <c r="E1628" s="65" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F1628" s="39">
         <v>217</v>
@@ -41234,7 +41233,7 @@
         <v>24</v>
       </c>
       <c r="E1629" s="65" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F1629" s="39">
         <v>217</v>
@@ -41254,7 +41253,7 @@
         <v>24</v>
       </c>
       <c r="E1630" s="65" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F1630" s="39">
         <v>217</v>
@@ -41274,7 +41273,7 @@
         <v>24</v>
       </c>
       <c r="E1631" s="65" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F1631" s="39">
         <v>217</v>
@@ -41294,7 +41293,7 @@
         <v>24</v>
       </c>
       <c r="E1632" s="65" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F1632" s="39">
         <v>217</v>
@@ -41354,7 +41353,7 @@
         <v>24</v>
       </c>
       <c r="E1635" s="64" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="F1635" s="39">
         <v>211</v>
@@ -41374,7 +41373,7 @@
         <v>24</v>
       </c>
       <c r="E1636" s="64" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="F1636" s="39">
         <v>213</v>
@@ -41394,7 +41393,7 @@
         <v>24</v>
       </c>
       <c r="E1637" s="64" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="F1637" s="39">
         <v>216</v>
@@ -41414,7 +41413,7 @@
         <v>24</v>
       </c>
       <c r="E1638" s="64" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="F1638" s="39">
         <v>219</v>
@@ -41434,7 +41433,7 @@
         <v>25</v>
       </c>
       <c r="E1639" s="65" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F1639" s="39">
         <v>212</v>
@@ -41454,7 +41453,7 @@
         <v>25</v>
       </c>
       <c r="E1640" s="65" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F1640" s="39">
         <v>214</v>
@@ -41474,7 +41473,7 @@
         <v>25</v>
       </c>
       <c r="E1641" s="65" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F1641" s="39">
         <v>217</v>
@@ -41494,7 +41493,7 @@
         <v>1</v>
       </c>
       <c r="E1642" s="65" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F1642" s="39">
         <v>212</v>
@@ -41514,7 +41513,7 @@
         <v>1</v>
       </c>
       <c r="E1643" s="65" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="F1643" s="39">
         <v>214</v>
@@ -41534,7 +41533,7 @@
         <v>1</v>
       </c>
       <c r="E1644" s="65" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F1644" s="39">
         <v>217</v>
@@ -41554,7 +41553,7 @@
         <v>24</v>
       </c>
       <c r="E1645" s="76" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="F1645" s="75">
         <v>232</v>
@@ -41574,7 +41573,7 @@
         <v>24</v>
       </c>
       <c r="E1646" s="76" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="F1646" s="75">
         <v>234</v>
@@ -41594,7 +41593,7 @@
         <v>24</v>
       </c>
       <c r="E1647" s="76" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="F1647" s="75">
         <v>237</v>
@@ -41634,7 +41633,7 @@
         <v>29</v>
       </c>
       <c r="E1649" s="76" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="F1649" s="75">
         <v>234</v>
@@ -41654,7 +41653,7 @@
         <v>29</v>
       </c>
       <c r="E1650" s="76" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1650" s="75">
         <v>237</v>
@@ -41694,7 +41693,7 @@
         <v>29</v>
       </c>
       <c r="E1652" s="76" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F1652" s="75">
         <v>234</v>
@@ -41714,7 +41713,7 @@
         <v>29</v>
       </c>
       <c r="E1653" s="76" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F1653" s="75">
         <v>237</v>
@@ -41734,7 +41733,7 @@
         <v>1</v>
       </c>
       <c r="E1654" s="66" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F1654" s="40">
         <v>222</v>
@@ -41754,7 +41753,7 @@
         <v>1</v>
       </c>
       <c r="E1655" s="66" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F1655" s="40">
         <v>224</v>
@@ -41774,7 +41773,7 @@
         <v>1</v>
       </c>
       <c r="E1656" s="66" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F1656" s="40">
         <v>227</v>
@@ -41794,7 +41793,7 @@
         <v>17</v>
       </c>
       <c r="E1657" s="79" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F1657" s="78">
         <v>232</v>
@@ -41814,7 +41813,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="79" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F1658" s="78">
         <v>234</v>
@@ -41834,7 +41833,7 @@
         <v>17</v>
       </c>
       <c r="E1659" s="79" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F1659" s="78">
         <v>237</v>
@@ -41854,7 +41853,7 @@
         <v>20</v>
       </c>
       <c r="E1660" s="79" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F1660" s="78">
         <v>232</v>
@@ -41874,7 +41873,7 @@
         <v>20</v>
       </c>
       <c r="E1661" s="79" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F1661" s="78">
         <v>234</v>
@@ -41894,7 +41893,7 @@
         <v>20</v>
       </c>
       <c r="E1662" s="79" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F1662" s="78">
         <v>237</v>
@@ -41914,7 +41913,7 @@
         <v>30</v>
       </c>
       <c r="E1663" s="79" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F1663" s="78">
         <v>232</v>
@@ -41934,7 +41933,7 @@
         <v>30</v>
       </c>
       <c r="E1664" s="79" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F1664" s="78">
         <v>234</v>
@@ -41954,7 +41953,7 @@
         <v>30</v>
       </c>
       <c r="E1665" s="80" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F1665" s="78">
         <v>237</v>
@@ -42054,7 +42053,7 @@
         <v>8</v>
       </c>
       <c r="E1670" s="79" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="F1670" s="78">
         <v>234</v>
@@ -42074,7 +42073,7 @@
         <v>8</v>
       </c>
       <c r="E1671" s="79" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="F1671" s="78">
         <v>237</v>
@@ -42094,7 +42093,7 @@
         <v>11</v>
       </c>
       <c r="E1672" s="79" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F1672" s="78">
         <v>232</v>
@@ -42114,7 +42113,7 @@
         <v>11</v>
       </c>
       <c r="E1673" s="79" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F1673" s="78">
         <v>234</v>
@@ -42134,7 +42133,7 @@
         <v>11</v>
       </c>
       <c r="E1674" s="79" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F1674" s="78">
         <v>237</v>
@@ -42154,7 +42153,7 @@
         <v>8</v>
       </c>
       <c r="E1675" s="67" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F1675" s="46">
         <v>232</v>
@@ -42174,7 +42173,7 @@
         <v>8</v>
       </c>
       <c r="E1676" s="67" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F1676" s="46">
         <v>234</v>
@@ -42194,7 +42193,7 @@
         <v>8</v>
       </c>
       <c r="E1677" s="67" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F1677" s="46">
         <v>237</v>
@@ -42214,7 +42213,7 @@
         <v>15</v>
       </c>
       <c r="E1678" s="79" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="F1678" s="78">
         <v>232</v>
@@ -42234,7 +42233,7 @@
         <v>15</v>
       </c>
       <c r="E1679" s="79" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F1679" s="78">
         <v>234</v>
@@ -42254,7 +42253,7 @@
         <v>15</v>
       </c>
       <c r="E1680" s="79" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F1680" s="78">
         <v>237</v>
@@ -42274,7 +42273,7 @@
         <v>19</v>
       </c>
       <c r="E1681" s="79" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="F1681" s="78">
         <v>232</v>
@@ -42294,7 +42293,7 @@
         <v>19</v>
       </c>
       <c r="E1682" s="79" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F1682" s="78">
         <v>234</v>
@@ -42314,7 +42313,7 @@
         <v>19</v>
       </c>
       <c r="E1683" s="79" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F1683" s="78">
         <v>237</v>
@@ -42354,7 +42353,7 @@
         <v>26</v>
       </c>
       <c r="E1685" s="79" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F1685" s="78">
         <v>234</v>
@@ -42374,7 +42373,7 @@
         <v>26</v>
       </c>
       <c r="E1686" s="79" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="F1686" s="78">
         <v>237</v>
@@ -42394,7 +42393,7 @@
         <v>22</v>
       </c>
       <c r="E1687" s="67" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F1687" s="46">
         <v>232</v>
@@ -42414,7 +42413,7 @@
         <v>22</v>
       </c>
       <c r="E1688" s="67" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F1688" s="46">
         <v>234</v>
@@ -42434,7 +42433,7 @@
         <v>22</v>
       </c>
       <c r="E1689" s="67" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F1689" s="46">
         <v>237</v>
@@ -42454,7 +42453,7 @@
         <v>13</v>
       </c>
       <c r="E1690" s="79" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F1690" s="78">
         <v>232</v>
@@ -42474,7 +42473,7 @@
         <v>13</v>
       </c>
       <c r="E1691" s="79" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="F1691" s="78">
         <v>234</v>
@@ -42494,7 +42493,7 @@
         <v>13</v>
       </c>
       <c r="E1692" s="79" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F1692" s="78">
         <v>237</v>
@@ -42514,7 +42513,7 @@
         <v>5</v>
       </c>
       <c r="E1693" s="79" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="F1693" s="78">
         <v>232</v>
@@ -42534,7 +42533,7 @@
         <v>5</v>
       </c>
       <c r="E1694" s="79" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F1694" s="78">
         <v>234</v>
@@ -42554,7 +42553,7 @@
         <v>5</v>
       </c>
       <c r="E1695" s="79" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F1695" s="78">
         <v>237</v>
@@ -42574,7 +42573,7 @@
         <v>6</v>
       </c>
       <c r="E1696" s="79" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F1696" s="78">
         <v>232</v>
@@ -42594,7 +42593,7 @@
         <v>6</v>
       </c>
       <c r="E1697" s="79" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F1697" s="78">
         <v>234</v>
@@ -42634,7 +42633,7 @@
         <v>-7</v>
       </c>
       <c r="E1699" s="68" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F1699" s="29">
         <v>202</v>
@@ -42674,7 +42673,7 @@
         <v>-5</v>
       </c>
       <c r="E1701" s="69" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="F1701" s="32">
         <v>202</v>
@@ -42714,7 +42713,7 @@
         <v>-3</v>
       </c>
       <c r="E1703" s="69" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F1703" s="32">
         <v>202</v>
@@ -42734,7 +42733,7 @@
         <v>-1</v>
       </c>
       <c r="E1704" s="70" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="F1704" s="32">
         <v>202</v>
@@ -42894,7 +42893,7 @@
         <v>49</v>
       </c>
       <c r="E1712" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1712" s="32">
         <v>202</v>
@@ -43074,7 +43073,7 @@
         <v>112</v>
       </c>
       <c r="E1721" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1721" s="32">
         <v>202</v>
@@ -43294,7 +43293,7 @@
         <v>189</v>
       </c>
       <c r="E1732" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1732" s="32">
         <v>202</v>
@@ -43514,7 +43513,7 @@
         <v>266</v>
       </c>
       <c r="E1743" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1743" s="32">
         <v>202</v>
@@ -43734,7 +43733,7 @@
         <v>343</v>
       </c>
       <c r="E1754" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1754" s="32">
         <v>202</v>
@@ -43954,7 +43953,7 @@
         <v>420</v>
       </c>
       <c r="E1765" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1765" s="32">
         <v>202</v>
@@ -44034,7 +44033,7 @@
         <v>25</v>
       </c>
       <c r="E1769" s="72" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="F1769" s="24">
         <v>284</v>
@@ -44054,7 +44053,7 @@
         <v>25</v>
       </c>
       <c r="E1770" s="72" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F1770" s="24">
         <v>284</v>
@@ -44094,7 +44093,7 @@
         <v>6</v>
       </c>
       <c r="E1772" s="72" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F1772" s="24">
         <v>284</v>
@@ -44114,7 +44113,7 @@
         <v>6</v>
       </c>
       <c r="E1773" s="72" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F1773" s="24">
         <v>284</v>
@@ -44154,7 +44153,7 @@
         <v>6</v>
       </c>
       <c r="E1775" s="72" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F1775" s="24">
         <v>284</v>
@@ -44254,7 +44253,7 @@
         <v>25</v>
       </c>
       <c r="E1780" s="72" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F1780" s="24">
         <v>287</v>
@@ -44274,7 +44273,7 @@
         <v>25</v>
       </c>
       <c r="E1781" s="73" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="F1781" s="24">
         <v>287</v>
@@ -44294,7 +44293,7 @@
         <v>25</v>
       </c>
       <c r="E1782" s="72" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F1782" s="24">
         <v>287</v>
@@ -44314,7 +44313,7 @@
         <v>25</v>
       </c>
       <c r="E1783" s="72" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="F1783" s="24">
         <v>287</v>
@@ -44334,7 +44333,7 @@
         <v>6</v>
       </c>
       <c r="E1784" s="72" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F1784" s="24">
         <v>287</v>
@@ -44354,7 +44353,7 @@
         <v>6</v>
       </c>
       <c r="E1785" s="72" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F1785" s="24">
         <v>287</v>
@@ -44374,7 +44373,7 @@
         <v>6</v>
       </c>
       <c r="E1786" s="73" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F1786" s="24">
         <v>287</v>
@@ -44394,7 +44393,7 @@
         <v>6</v>
       </c>
       <c r="E1787" s="72" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F1787" s="24">
         <v>287</v>
@@ -44414,7 +44413,7 @@
         <v>14</v>
       </c>
       <c r="E1788" s="72" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F1788" s="24">
         <v>297</v>
@@ -44434,7 +44433,7 @@
         <v>14</v>
       </c>
       <c r="E1789" s="72" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F1789" s="24">
         <v>297</v>
@@ -44454,7 +44453,7 @@
         <v>14</v>
       </c>
       <c r="E1790" s="72" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F1790" s="24">
         <v>297</v>
@@ -44654,7 +44653,7 @@
         <v>-96</v>
       </c>
       <c r="E1800" s="69" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="F1800" s="32">
         <v>204</v>
@@ -44694,7 +44693,7 @@
         <v>-94</v>
       </c>
       <c r="E1802" s="69" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F1802" s="32">
         <v>204</v>
@@ -44714,7 +44713,7 @@
         <v>-93</v>
       </c>
       <c r="E1803" s="69" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F1803" s="32">
         <v>204</v>
@@ -44774,7 +44773,7 @@
         <v>-90</v>
       </c>
       <c r="E1806" s="69" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F1806" s="32">
         <v>204</v>
@@ -44794,7 +44793,7 @@
         <v>-89</v>
       </c>
       <c r="E1807" s="69" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="F1807" s="32">
         <v>204</v>
@@ -44994,7 +44993,7 @@
         <v>-79</v>
       </c>
       <c r="E1817" s="70" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F1817" s="32">
         <v>204</v>
@@ -45134,7 +45133,7 @@
         <v>-72</v>
       </c>
       <c r="E1824" s="69" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F1824" s="32">
         <v>204</v>
@@ -45274,7 +45273,7 @@
         <v>-65</v>
       </c>
       <c r="E1831" s="69" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F1831" s="32">
         <v>204</v>
@@ -45534,7 +45533,7 @@
         <v>-50</v>
       </c>
       <c r="E1844" s="70" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="F1844" s="32">
         <v>204</v>
@@ -45574,7 +45573,7 @@
         <v>-43</v>
       </c>
       <c r="E1846" s="70" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F1846" s="32">
         <v>204</v>
@@ -45594,7 +45593,7 @@
         <v>-42</v>
       </c>
       <c r="E1847" s="69" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="F1847" s="32">
         <v>204</v>
@@ -45614,7 +45613,7 @@
         <v>-36</v>
       </c>
       <c r="E1848" s="70" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F1848" s="32">
         <v>204</v>
@@ -45634,7 +45633,7 @@
         <v>-35</v>
       </c>
       <c r="E1849" s="70" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F1849" s="32">
         <v>204</v>
@@ -45654,7 +45653,7 @@
         <v>-29</v>
       </c>
       <c r="E1850" s="70" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F1850" s="32">
         <v>204</v>
@@ -45694,7 +45693,7 @@
         <v>-22</v>
       </c>
       <c r="E1852" s="70" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F1852" s="32">
         <v>204</v>
@@ -45714,7 +45713,7 @@
         <v>-21</v>
       </c>
       <c r="E1853" s="69" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="F1853" s="32">
         <v>204</v>
@@ -45734,7 +45733,7 @@
         <v>-15</v>
       </c>
       <c r="E1854" s="70" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F1854" s="32">
         <v>204</v>
@@ -45754,7 +45753,7 @@
         <v>-14</v>
       </c>
       <c r="E1855" s="70" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F1855" s="32">
         <v>204</v>
@@ -45874,7 +45873,7 @@
         <v>1</v>
       </c>
       <c r="E1861" s="69" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="F1861" s="32">
         <v>204</v>
@@ -46154,7 +46153,7 @@
         <v>15</v>
       </c>
       <c r="E1875" s="69" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F1875" s="32">
         <v>204</v>
@@ -46414,7 +46413,7 @@
         <v>28</v>
       </c>
       <c r="E1888" s="69" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="F1888" s="32">
         <v>204</v>
@@ -46694,7 +46693,7 @@
         <v>42</v>
       </c>
       <c r="E1902" s="69" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="F1902" s="32">
         <v>204</v>
@@ -46814,7 +46813,7 @@
         <v>48</v>
       </c>
       <c r="E1908" s="70" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="F1908" s="32">
         <v>204</v>
@@ -46874,7 +46873,7 @@
         <v>51</v>
       </c>
       <c r="E1911" s="69" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="F1911" s="32">
         <v>204</v>
@@ -46994,7 +46993,7 @@
         <v>57</v>
       </c>
       <c r="E1917" s="69" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1917" s="32">
         <v>204</v>
@@ -48734,7 +48733,7 @@
         <v>144</v>
       </c>
       <c r="E2004" s="69" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="F2004" s="32">
         <v>204</v>
@@ -49754,7 +49753,7 @@
         <v>195</v>
       </c>
       <c r="E2055" s="69" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F2055" s="32">
         <v>204</v>
@@ -50034,7 +50033,7 @@
         <v>209</v>
       </c>
       <c r="E2069" s="69" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F2069" s="32">
         <v>204</v>
@@ -50134,7 +50133,7 @@
         <v>214</v>
       </c>
       <c r="E2074" s="69" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F2074" s="32">
         <v>204</v>
@@ -50154,7 +50153,7 @@
         <v>215</v>
       </c>
       <c r="E2075" s="69" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="F2075" s="32">
         <v>204</v>
@@ -50394,7 +50393,7 @@
         <v>227</v>
       </c>
       <c r="E2087" s="69" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="F2087" s="32">
         <v>204</v>
@@ -50754,7 +50753,7 @@
         <v>245</v>
       </c>
       <c r="E2105" s="69" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F2105" s="32">
         <v>204</v>
@@ -50774,7 +50773,7 @@
         <v>246</v>
       </c>
       <c r="E2106" s="69" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="F2106" s="32">
         <v>204</v>
@@ -50814,7 +50813,7 @@
         <v>248</v>
       </c>
       <c r="E2108" s="69" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F2108" s="32">
         <v>204</v>
@@ -50834,7 +50833,7 @@
         <v>249</v>
       </c>
       <c r="E2109" s="69" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F2109" s="32">
         <v>204</v>
@@ -50934,7 +50933,7 @@
         <v>254</v>
       </c>
       <c r="E2114" s="69" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="F2114" s="32">
         <v>204</v>
@@ -50974,7 +50973,7 @@
         <v>256</v>
       </c>
       <c r="E2116" s="69" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F2116" s="32">
         <v>204</v>
@@ -50994,7 +50993,7 @@
         <v>257</v>
       </c>
       <c r="E2117" s="69" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F2117" s="32">
         <v>204</v>
@@ -51054,7 +51053,7 @@
         <v>260</v>
       </c>
       <c r="E2120" s="69" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F2120" s="32">
         <v>204</v>
@@ -51074,7 +51073,7 @@
         <v>261</v>
       </c>
       <c r="E2121" s="69" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="F2121" s="32">
         <v>204</v>
@@ -51274,7 +51273,7 @@
         <v>271</v>
       </c>
       <c r="E2131" s="69" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="F2131" s="32">
         <v>204</v>
@@ -51414,7 +51413,7 @@
         <v>278</v>
       </c>
       <c r="E2138" s="69" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F2138" s="32">
         <v>204</v>
@@ -51474,7 +51473,7 @@
         <v>-104</v>
       </c>
       <c r="E2141" s="69" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F2141" s="32">
         <v>207</v>
@@ -51494,7 +51493,7 @@
         <v>-103</v>
       </c>
       <c r="E2142" s="69" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F2142" s="32">
         <v>207</v>
@@ -51514,7 +51513,7 @@
         <v>-102</v>
       </c>
       <c r="E2143" s="69" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F2143" s="32">
         <v>207</v>
@@ -51534,7 +51533,7 @@
         <v>-101</v>
       </c>
       <c r="E2144" s="69" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F2144" s="32">
         <v>207</v>
@@ -51554,7 +51553,7 @@
         <v>-100</v>
       </c>
       <c r="E2145" s="69" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F2145" s="32">
         <v>207</v>
@@ -51574,7 +51573,7 @@
         <v>-99</v>
       </c>
       <c r="E2146" s="69" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F2146" s="32">
         <v>207</v>
@@ -51594,7 +51593,7 @@
         <v>-98</v>
       </c>
       <c r="E2147" s="69" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F2147" s="32">
         <v>207</v>
@@ -51614,7 +51613,7 @@
         <v>-97</v>
       </c>
       <c r="E2148" s="69" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F2148" s="32">
         <v>207</v>
@@ -51634,7 +51633,7 @@
         <v>-96</v>
       </c>
       <c r="E2149" s="69" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F2149" s="32">
         <v>207</v>
@@ -51654,7 +51653,7 @@
         <v>-95</v>
       </c>
       <c r="E2150" s="69" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F2150" s="32">
         <v>207</v>
@@ -51674,7 +51673,7 @@
         <v>-94</v>
       </c>
       <c r="E2151" s="69" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F2151" s="32">
         <v>207</v>
@@ -51694,7 +51693,7 @@
         <v>-93</v>
       </c>
       <c r="E2152" s="69" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F2152" s="32">
         <v>207</v>
@@ -51714,7 +51713,7 @@
         <v>-92</v>
       </c>
       <c r="E2153" s="69" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F2153" s="32">
         <v>207</v>
@@ -51734,7 +51733,7 @@
         <v>-91</v>
       </c>
       <c r="E2154" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F2154" s="32">
         <v>207</v>
@@ -51754,7 +51753,7 @@
         <v>-90</v>
       </c>
       <c r="E2155" s="69" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="F2155" s="32">
         <v>207</v>
@@ -51774,7 +51773,7 @@
         <v>-89</v>
       </c>
       <c r="E2156" s="69" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F2156" s="32">
         <v>207</v>
@@ -51794,7 +51793,7 @@
         <v>-88</v>
       </c>
       <c r="E2157" s="69" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F2157" s="32">
         <v>207</v>
@@ -51814,7 +51813,7 @@
         <v>-87</v>
       </c>
       <c r="E2158" s="69" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F2158" s="32">
         <v>207</v>
@@ -51834,7 +51833,7 @@
         <v>-86</v>
       </c>
       <c r="E2159" s="69" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F2159" s="32">
         <v>207</v>
@@ -51854,7 +51853,7 @@
         <v>-85</v>
       </c>
       <c r="E2160" s="69" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F2160" s="32">
         <v>207</v>
@@ -51874,7 +51873,7 @@
         <v>-84</v>
       </c>
       <c r="E2161" s="69" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F2161" s="32">
         <v>207</v>
@@ -51894,7 +51893,7 @@
         <v>-83</v>
       </c>
       <c r="E2162" s="69" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F2162" s="32">
         <v>207</v>
@@ -51914,7 +51913,7 @@
         <v>-82</v>
       </c>
       <c r="E2163" s="69" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F2163" s="32">
         <v>207</v>
@@ -51934,7 +51933,7 @@
         <v>-81</v>
       </c>
       <c r="E2164" s="69" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F2164" s="32">
         <v>207</v>
@@ -51954,7 +51953,7 @@
         <v>-80</v>
       </c>
       <c r="E2165" s="69" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F2165" s="32">
         <v>207</v>
@@ -51974,7 +51973,7 @@
         <v>-79</v>
       </c>
       <c r="E2166" s="69" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F2166" s="32">
         <v>207</v>
@@ -51994,7 +51993,7 @@
         <v>-78</v>
       </c>
       <c r="E2167" s="69" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F2167" s="32">
         <v>207</v>
@@ -52014,7 +52013,7 @@
         <v>-77</v>
       </c>
       <c r="E2168" s="69" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F2168" s="32">
         <v>207</v>
@@ -52034,7 +52033,7 @@
         <v>-76</v>
       </c>
       <c r="E2169" s="69" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F2169" s="32">
         <v>207</v>
@@ -52054,7 +52053,7 @@
         <v>-75</v>
       </c>
       <c r="E2170" s="69" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F2170" s="32">
         <v>207</v>
@@ -52074,7 +52073,7 @@
         <v>-74</v>
       </c>
       <c r="E2171" s="69" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F2171" s="32">
         <v>207</v>
@@ -52094,7 +52093,7 @@
         <v>-73</v>
       </c>
       <c r="E2172" s="69" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F2172" s="32">
         <v>207</v>
@@ -52114,7 +52113,7 @@
         <v>-72</v>
       </c>
       <c r="E2173" s="69" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F2173" s="32">
         <v>207</v>
@@ -52134,7 +52133,7 @@
         <v>-71</v>
       </c>
       <c r="E2174" s="69" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F2174" s="32">
         <v>207</v>
@@ -52154,7 +52153,7 @@
         <v>-70</v>
       </c>
       <c r="E2175" s="69" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F2175" s="32">
         <v>207</v>
@@ -52174,7 +52173,7 @@
         <v>-69</v>
       </c>
       <c r="E2176" s="69" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F2176" s="32">
         <v>207</v>
@@ -52194,7 +52193,7 @@
         <v>-68</v>
       </c>
       <c r="E2177" s="69" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F2177" s="32">
         <v>207</v>
@@ -52214,7 +52213,7 @@
         <v>-67</v>
       </c>
       <c r="E2178" s="69" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F2178" s="32">
         <v>207</v>
@@ -52234,7 +52233,7 @@
         <v>-66</v>
       </c>
       <c r="E2179" s="69" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F2179" s="32">
         <v>207</v>
@@ -52254,7 +52253,7 @@
         <v>-65</v>
       </c>
       <c r="E2180" s="69" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="F2180" s="32">
         <v>207</v>
@@ -52274,7 +52273,7 @@
         <v>-64</v>
       </c>
       <c r="E2181" s="69" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F2181" s="32">
         <v>207</v>
@@ -52294,7 +52293,7 @@
         <v>-63</v>
       </c>
       <c r="E2182" s="69" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F2182" s="32">
         <v>207</v>
@@ -52314,7 +52313,7 @@
         <v>-62</v>
       </c>
       <c r="E2183" s="69" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F2183" s="32">
         <v>207</v>
@@ -52334,7 +52333,7 @@
         <v>-61</v>
       </c>
       <c r="E2184" s="69" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F2184" s="32">
         <v>207</v>
@@ -52354,7 +52353,7 @@
         <v>-60</v>
       </c>
       <c r="E2185" s="69" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F2185" s="32">
         <v>207</v>
@@ -52374,7 +52373,7 @@
         <v>-59</v>
       </c>
       <c r="E2186" s="69" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F2186" s="32">
         <v>207</v>
@@ -52394,7 +52393,7 @@
         <v>-58</v>
       </c>
       <c r="E2187" s="69" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="F2187" s="32">
         <v>207</v>
@@ -52414,7 +52413,7 @@
         <v>-57</v>
       </c>
       <c r="E2188" s="70" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="F2188" s="32">
         <v>207</v>
@@ -52434,7 +52433,7 @@
         <v>-56</v>
       </c>
       <c r="E2189" s="69" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F2189" s="32">
         <v>207</v>
@@ -52454,7 +52453,7 @@
         <v>-55</v>
       </c>
       <c r="E2190" s="69" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="F2190" s="32">
         <v>207</v>
@@ -52474,7 +52473,7 @@
         <v>-54</v>
       </c>
       <c r="E2191" s="69" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="F2191" s="32">
         <v>207</v>
@@ -52494,7 +52493,7 @@
         <v>-52</v>
       </c>
       <c r="E2192" s="69" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="F2192" s="32">
         <v>207</v>
@@ -52514,7 +52513,7 @@
         <v>-50</v>
       </c>
       <c r="E2193" s="70" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F2193" s="32">
         <v>207</v>
@@ -52534,7 +52533,7 @@
         <v>-49</v>
       </c>
       <c r="E2194" s="70" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F2194" s="32">
         <v>207</v>
@@ -52554,7 +52553,7 @@
         <v>-43</v>
       </c>
       <c r="E2195" s="70" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="F2195" s="32">
         <v>207</v>
@@ -52574,7 +52573,7 @@
         <v>-42</v>
       </c>
       <c r="E2196" s="69" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F2196" s="32">
         <v>207</v>
@@ -52594,7 +52593,7 @@
         <v>-36</v>
       </c>
       <c r="E2197" s="70" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="F2197" s="32">
         <v>207</v>
@@ -52614,7 +52613,7 @@
         <v>-35</v>
       </c>
       <c r="E2198" s="70" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="F2198" s="32">
         <v>207</v>
@@ -52634,7 +52633,7 @@
         <v>-29</v>
       </c>
       <c r="E2199" s="70" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="F2199" s="32">
         <v>207</v>
@@ -52674,7 +52673,7 @@
         <v>-22</v>
       </c>
       <c r="E2201" s="70" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F2201" s="32">
         <v>207</v>
@@ -52694,7 +52693,7 @@
         <v>-21</v>
       </c>
       <c r="E2202" s="70" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="F2202" s="32">
         <v>207</v>
@@ -52714,7 +52713,7 @@
         <v>-15</v>
       </c>
       <c r="E2203" s="70" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="F2203" s="32">
         <v>207</v>
@@ -52734,7 +52733,7 @@
         <v>-14</v>
       </c>
       <c r="E2204" s="70" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F2204" s="32">
         <v>207</v>
@@ -52754,7 +52753,7 @@
         <v>-8</v>
       </c>
       <c r="E2205" s="69" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F2205" s="32">
         <v>207</v>
@@ -52774,7 +52773,7 @@
         <v>-7</v>
       </c>
       <c r="E2206" s="69" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F2206" s="32">
         <v>207</v>
@@ -52794,7 +52793,7 @@
         <v>-6</v>
       </c>
       <c r="E2207" s="70" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="F2207" s="32">
         <v>207</v>
@@ -52814,7 +52813,7 @@
         <v>-5</v>
       </c>
       <c r="E2208" s="70" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="F2208" s="32">
         <v>207</v>
@@ -52834,7 +52833,7 @@
         <v>-4</v>
       </c>
       <c r="E2209" s="70" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="F2209" s="32">
         <v>207</v>
@@ -52854,7 +52853,7 @@
         <v>-3</v>
       </c>
       <c r="E2210" s="70" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="F2210" s="32">
         <v>207</v>
@@ -52874,7 +52873,7 @@
         <v>-1</v>
       </c>
       <c r="E2211" s="69" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F2211" s="32">
         <v>207</v>
@@ -52894,7 +52893,7 @@
         <v>0</v>
       </c>
       <c r="E2212" s="69" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F2212" s="32">
         <v>207</v>
@@ -52914,7 +52913,7 @@
         <v>1</v>
       </c>
       <c r="E2213" s="69" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F2213" s="32">
         <v>207</v>
@@ -52954,7 +52953,7 @@
         <v>3</v>
       </c>
       <c r="E2215" s="69" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F2215" s="32">
         <v>207</v>
@@ -52974,7 +52973,7 @@
         <v>4</v>
       </c>
       <c r="E2216" s="69" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="F2216" s="32">
         <v>207</v>
@@ -52994,7 +52993,7 @@
         <v>5</v>
       </c>
       <c r="E2217" s="69" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F2217" s="32">
         <v>207</v>
@@ -53014,7 +53013,7 @@
         <v>6</v>
       </c>
       <c r="E2218" s="69" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="F2218" s="32">
         <v>207</v>
@@ -53034,7 +53033,7 @@
         <v>7</v>
       </c>
       <c r="E2219" s="69" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F2219" s="32">
         <v>207</v>
@@ -53054,7 +53053,7 @@
         <v>8</v>
       </c>
       <c r="E2220" s="69" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="F2220" s="32">
         <v>207</v>
@@ -53074,7 +53073,7 @@
         <v>9</v>
       </c>
       <c r="E2221" s="69" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F2221" s="32">
         <v>207</v>
@@ -53094,7 +53093,7 @@
         <v>10</v>
       </c>
       <c r="E2222" s="69" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F2222" s="32">
         <v>207</v>
@@ -53114,7 +53113,7 @@
         <v>11</v>
       </c>
       <c r="E2223" s="69" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F2223" s="32">
         <v>207</v>
@@ -53134,7 +53133,7 @@
         <v>12</v>
       </c>
       <c r="E2224" s="69" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F2224" s="32">
         <v>207</v>
@@ -53154,7 +53153,7 @@
         <v>13</v>
       </c>
       <c r="E2225" s="69" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="F2225" s="32">
         <v>207</v>
@@ -53174,7 +53173,7 @@
         <v>14</v>
       </c>
       <c r="E2226" s="69" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F2226" s="32">
         <v>207</v>
@@ -53194,7 +53193,7 @@
         <v>15</v>
       </c>
       <c r="E2227" s="69" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F2227" s="32">
         <v>207</v>
@@ -53214,7 +53213,7 @@
         <v>16</v>
       </c>
       <c r="E2228" s="69" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F2228" s="32">
         <v>207</v>
@@ -53234,7 +53233,7 @@
         <v>17</v>
       </c>
       <c r="E2229" s="69" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F2229" s="32">
         <v>207</v>
@@ -53254,7 +53253,7 @@
         <v>18</v>
       </c>
       <c r="E2230" s="69" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F2230" s="32">
         <v>207</v>
@@ -53274,7 +53273,7 @@
         <v>19</v>
       </c>
       <c r="E2231" s="69" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F2231" s="32">
         <v>207</v>
@@ -53314,7 +53313,7 @@
         <v>21</v>
       </c>
       <c r="E2233" s="69" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F2233" s="32">
         <v>207</v>
@@ -53334,7 +53333,7 @@
         <v>22</v>
       </c>
       <c r="E2234" s="69" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F2234" s="32">
         <v>207</v>
@@ -53354,7 +53353,7 @@
         <v>23</v>
       </c>
       <c r="E2235" s="69" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F2235" s="32">
         <v>207</v>
@@ -53374,7 +53373,7 @@
         <v>24</v>
       </c>
       <c r="E2236" s="69" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F2236" s="32">
         <v>207</v>
@@ -53394,7 +53393,7 @@
         <v>25</v>
       </c>
       <c r="E2237" s="69" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F2237" s="32">
         <v>207</v>
@@ -53414,7 +53413,7 @@
         <v>26</v>
       </c>
       <c r="E2238" s="69" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F2238" s="32">
         <v>207</v>
@@ -53434,7 +53433,7 @@
         <v>27</v>
       </c>
       <c r="E2239" s="69" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F2239" s="32">
         <v>207</v>
@@ -53454,7 +53453,7 @@
         <v>28</v>
       </c>
       <c r="E2240" s="69" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F2240" s="32">
         <v>207</v>
@@ -53474,7 +53473,7 @@
         <v>29</v>
       </c>
       <c r="E2241" s="69" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F2241" s="32">
         <v>207</v>
@@ -53494,7 +53493,7 @@
         <v>30</v>
       </c>
       <c r="E2242" s="69" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F2242" s="32">
         <v>207</v>
@@ -53514,7 +53513,7 @@
         <v>31</v>
       </c>
       <c r="E2243" s="69" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F2243" s="32">
         <v>207</v>
@@ -53534,7 +53533,7 @@
         <v>32</v>
       </c>
       <c r="E2244" s="69" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F2244" s="32">
         <v>207</v>
@@ -53554,7 +53553,7 @@
         <v>33</v>
       </c>
       <c r="E2245" s="69" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F2245" s="32">
         <v>207</v>
@@ -53574,7 +53573,7 @@
         <v>34</v>
       </c>
       <c r="E2246" s="69" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F2246" s="32">
         <v>207</v>
@@ -53594,7 +53593,7 @@
         <v>35</v>
       </c>
       <c r="E2247" s="69" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F2247" s="32">
         <v>207</v>
@@ -53614,7 +53613,7 @@
         <v>36</v>
       </c>
       <c r="E2248" s="69" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F2248" s="32">
         <v>207</v>
@@ -53634,7 +53633,7 @@
         <v>37</v>
       </c>
       <c r="E2249" s="69" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F2249" s="32">
         <v>207</v>
@@ -53654,7 +53653,7 @@
         <v>38</v>
       </c>
       <c r="E2250" s="69" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F2250" s="32">
         <v>207</v>
@@ -53694,7 +53693,7 @@
         <v>40</v>
       </c>
       <c r="E2252" s="69" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F2252" s="32">
         <v>207</v>
@@ -53714,7 +53713,7 @@
         <v>41</v>
       </c>
       <c r="E2253" s="69" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F2253" s="32">
         <v>207</v>
@@ -53734,7 +53733,7 @@
         <v>42</v>
       </c>
       <c r="E2254" s="69" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F2254" s="32">
         <v>207</v>
@@ -53754,7 +53753,7 @@
         <v>43</v>
       </c>
       <c r="E2255" s="69" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F2255" s="32">
         <v>207</v>
@@ -53774,7 +53773,7 @@
         <v>44</v>
       </c>
       <c r="E2256" s="69" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F2256" s="32">
         <v>207</v>
@@ -53794,7 +53793,7 @@
         <v>45</v>
       </c>
       <c r="E2257" s="69" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="F2257" s="32">
         <v>207</v>
@@ -53814,7 +53813,7 @@
         <v>46</v>
       </c>
       <c r="E2258" s="69" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F2258" s="32">
         <v>207</v>
@@ -53834,7 +53833,7 @@
         <v>47</v>
       </c>
       <c r="E2259" s="69" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F2259" s="32">
         <v>207</v>
@@ -53874,7 +53873,7 @@
         <v>49</v>
       </c>
       <c r="E2261" s="69" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="F2261" s="32">
         <v>207</v>
@@ -53894,7 +53893,7 @@
         <v>50</v>
       </c>
       <c r="E2262" s="69" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F2262" s="32">
         <v>207</v>
@@ -53914,7 +53913,7 @@
         <v>51</v>
       </c>
       <c r="E2263" s="69" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="F2263" s="32">
         <v>207</v>
@@ -53934,7 +53933,7 @@
         <v>52</v>
       </c>
       <c r="E2264" s="69" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F2264" s="32">
         <v>207</v>
@@ -53954,7 +53953,7 @@
         <v>53</v>
       </c>
       <c r="E2265" s="69" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F2265" s="32">
         <v>207</v>
@@ -53974,7 +53973,7 @@
         <v>54</v>
       </c>
       <c r="E2266" s="69" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="F2266" s="32">
         <v>207</v>
@@ -53994,7 +53993,7 @@
         <v>55</v>
       </c>
       <c r="E2267" s="69" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="F2267" s="32">
         <v>207</v>
@@ -54014,7 +54013,7 @@
         <v>56</v>
       </c>
       <c r="E2268" s="69" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="F2268" s="32">
         <v>207</v>
@@ -54034,7 +54033,7 @@
         <v>57</v>
       </c>
       <c r="E2269" s="69" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="F2269" s="32">
         <v>207</v>
@@ -54054,7 +54053,7 @@
         <v>58</v>
       </c>
       <c r="E2270" s="69" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F2270" s="32">
         <v>207</v>
@@ -54074,7 +54073,7 @@
         <v>59</v>
       </c>
       <c r="E2271" s="69" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F2271" s="32">
         <v>207</v>
@@ -54094,7 +54093,7 @@
         <v>60</v>
       </c>
       <c r="E2272" s="69" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="F2272" s="32">
         <v>207</v>
@@ -54114,7 +54113,7 @@
         <v>61</v>
       </c>
       <c r="E2273" s="69" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F2273" s="32">
         <v>207</v>
@@ -54134,7 +54133,7 @@
         <v>62</v>
       </c>
       <c r="E2274" s="69" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F2274" s="32">
         <v>207</v>
@@ -54154,7 +54153,7 @@
         <v>63</v>
       </c>
       <c r="E2275" s="69" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F2275" s="32">
         <v>207</v>
@@ -54174,7 +54173,7 @@
         <v>64</v>
       </c>
       <c r="E2276" s="69" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F2276" s="32">
         <v>207</v>
@@ -54194,7 +54193,7 @@
         <v>65</v>
       </c>
       <c r="E2277" s="69" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F2277" s="32">
         <v>207</v>
@@ -54214,7 +54213,7 @@
         <v>66</v>
       </c>
       <c r="E2278" s="69" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F2278" s="32">
         <v>207</v>
@@ -54234,7 +54233,7 @@
         <v>67</v>
       </c>
       <c r="E2279" s="69" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F2279" s="32">
         <v>207</v>
@@ -54254,7 +54253,7 @@
         <v>68</v>
       </c>
       <c r="E2280" s="69" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="F2280" s="32">
         <v>207</v>
@@ -54274,7 +54273,7 @@
         <v>69</v>
       </c>
       <c r="E2281" s="69" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F2281" s="32">
         <v>207</v>
@@ -54294,7 +54293,7 @@
         <v>70</v>
       </c>
       <c r="E2282" s="70" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F2282" s="32">
         <v>207</v>
@@ -54314,7 +54313,7 @@
         <v>71</v>
       </c>
       <c r="E2283" s="69" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F2283" s="32">
         <v>207</v>
@@ -54334,7 +54333,7 @@
         <v>72</v>
       </c>
       <c r="E2284" s="69" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F2284" s="32">
         <v>207</v>
@@ -54354,7 +54353,7 @@
         <v>73</v>
       </c>
       <c r="E2285" s="69" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F2285" s="32">
         <v>207</v>
@@ -54374,7 +54373,7 @@
         <v>74</v>
       </c>
       <c r="E2286" s="69" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F2286" s="32">
         <v>207</v>
@@ -54394,7 +54393,7 @@
         <v>75</v>
       </c>
       <c r="E2287" s="69" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F2287" s="32">
         <v>207</v>
@@ -54414,7 +54413,7 @@
         <v>76</v>
       </c>
       <c r="E2288" s="69" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F2288" s="32">
         <v>207</v>
@@ -54434,7 +54433,7 @@
         <v>77</v>
       </c>
       <c r="E2289" s="69" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F2289" s="32">
         <v>207</v>
@@ -54454,7 +54453,7 @@
         <v>78</v>
       </c>
       <c r="E2290" s="69" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F2290" s="32">
         <v>207</v>
@@ -54474,7 +54473,7 @@
         <v>79</v>
       </c>
       <c r="E2291" s="69" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F2291" s="32">
         <v>207</v>
@@ -54494,7 +54493,7 @@
         <v>80</v>
       </c>
       <c r="E2292" s="69" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F2292" s="32">
         <v>207</v>
@@ -54514,7 +54513,7 @@
         <v>81</v>
       </c>
       <c r="E2293" s="69" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F2293" s="32">
         <v>207</v>
@@ -54534,7 +54533,7 @@
         <v>82</v>
       </c>
       <c r="E2294" s="69" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F2294" s="32">
         <v>207</v>
@@ -54554,7 +54553,7 @@
         <v>83</v>
       </c>
       <c r="E2295" s="69" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F2295" s="32">
         <v>207</v>
@@ -54574,7 +54573,7 @@
         <v>84</v>
       </c>
       <c r="E2296" s="69" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F2296" s="32">
         <v>207</v>
@@ -54594,7 +54593,7 @@
         <v>85</v>
       </c>
       <c r="E2297" s="69" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F2297" s="32">
         <v>207</v>
@@ -54614,7 +54613,7 @@
         <v>86</v>
       </c>
       <c r="E2298" s="69" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F2298" s="32">
         <v>207</v>
@@ -54654,7 +54653,7 @@
         <v>88</v>
       </c>
       <c r="E2300" s="69" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F2300" s="32">
         <v>207</v>
@@ -54674,7 +54673,7 @@
         <v>89</v>
       </c>
       <c r="E2301" s="69" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F2301" s="32">
         <v>207</v>
@@ -54694,7 +54693,7 @@
         <v>90</v>
       </c>
       <c r="E2302" s="69" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F2302" s="32">
         <v>207</v>
@@ -54714,7 +54713,7 @@
         <v>91</v>
       </c>
       <c r="E2303" s="69" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F2303" s="32">
         <v>207</v>
@@ -54734,7 +54733,7 @@
         <v>92</v>
       </c>
       <c r="E2304" s="70" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="F2304" s="32">
         <v>207</v>
@@ -54774,7 +54773,7 @@
         <v>94</v>
       </c>
       <c r="E2306" s="69" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F2306" s="32">
         <v>207</v>
@@ -54794,7 +54793,7 @@
         <v>95</v>
       </c>
       <c r="E2307" s="69" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F2307" s="32">
         <v>207</v>
@@ -54814,7 +54813,7 @@
         <v>96</v>
       </c>
       <c r="E2308" s="69" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F2308" s="32">
         <v>207</v>
@@ -54834,7 +54833,7 @@
         <v>97</v>
       </c>
       <c r="E2309" s="69" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F2309" s="32">
         <v>207</v>
@@ -54854,7 +54853,7 @@
         <v>98</v>
       </c>
       <c r="E2310" s="69" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F2310" s="32">
         <v>207</v>
@@ -54874,7 +54873,7 @@
         <v>99</v>
       </c>
       <c r="E2311" s="69" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F2311" s="32">
         <v>207</v>
@@ -54894,7 +54893,7 @@
         <v>100</v>
       </c>
       <c r="E2312" s="69" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F2312" s="32">
         <v>207</v>
@@ -54914,7 +54913,7 @@
         <v>101</v>
       </c>
       <c r="E2313" s="69" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="F2313" s="32">
         <v>207</v>
@@ -54934,7 +54933,7 @@
         <v>102</v>
       </c>
       <c r="E2314" s="69" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F2314" s="32">
         <v>207</v>
@@ -54954,7 +54953,7 @@
         <v>103</v>
       </c>
       <c r="E2315" s="69" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F2315" s="32">
         <v>207</v>
@@ -54974,7 +54973,7 @@
         <v>104</v>
       </c>
       <c r="E2316" s="69" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F2316" s="32">
         <v>207</v>
@@ -54994,7 +54993,7 @@
         <v>105</v>
       </c>
       <c r="E2317" s="69" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F2317" s="32">
         <v>207</v>
@@ -55014,7 +55013,7 @@
         <v>106</v>
       </c>
       <c r="E2318" s="69" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F2318" s="32">
         <v>207</v>
@@ -55034,7 +55033,7 @@
         <v>107</v>
       </c>
       <c r="E2319" s="69" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="F2319" s="32">
         <v>207</v>
@@ -55054,7 +55053,7 @@
         <v>108</v>
       </c>
       <c r="E2320" s="69" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F2320" s="32">
         <v>207</v>
@@ -55074,7 +55073,7 @@
         <v>109</v>
       </c>
       <c r="E2321" s="69" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F2321" s="32">
         <v>207</v>
@@ -55094,7 +55093,7 @@
         <v>110</v>
       </c>
       <c r="E2322" s="69" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F2322" s="32">
         <v>207</v>
@@ -55114,7 +55113,7 @@
         <v>111</v>
       </c>
       <c r="E2323" s="69" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F2323" s="32">
         <v>207</v>
@@ -55134,7 +55133,7 @@
         <v>112</v>
       </c>
       <c r="E2324" s="69" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F2324" s="32">
         <v>207</v>
@@ -55154,7 +55153,7 @@
         <v>113</v>
       </c>
       <c r="E2325" s="69" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F2325" s="32">
         <v>207</v>
@@ -55174,7 +55173,7 @@
         <v>114</v>
       </c>
       <c r="E2326" s="69" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F2326" s="32">
         <v>207</v>
@@ -55194,7 +55193,7 @@
         <v>115</v>
       </c>
       <c r="E2327" s="69" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F2327" s="32">
         <v>207</v>
@@ -55214,7 +55213,7 @@
         <v>116</v>
       </c>
       <c r="E2328" s="69" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F2328" s="32">
         <v>207</v>
@@ -55234,7 +55233,7 @@
         <v>117</v>
       </c>
       <c r="E2329" s="69" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F2329" s="32">
         <v>207</v>
@@ -55254,7 +55253,7 @@
         <v>118</v>
       </c>
       <c r="E2330" s="69" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F2330" s="32">
         <v>207</v>
@@ -55274,7 +55273,7 @@
         <v>119</v>
       </c>
       <c r="E2331" s="69" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F2331" s="32">
         <v>207</v>
@@ -55294,7 +55293,7 @@
         <v>120</v>
       </c>
       <c r="E2332" s="69" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F2332" s="32">
         <v>207</v>
@@ -55314,7 +55313,7 @@
         <v>121</v>
       </c>
       <c r="E2333" s="69" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F2333" s="32">
         <v>207</v>
@@ -55334,7 +55333,7 @@
         <v>122</v>
       </c>
       <c r="E2334" s="69" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F2334" s="32">
         <v>207</v>
@@ -55354,7 +55353,7 @@
         <v>123</v>
       </c>
       <c r="E2335" s="69" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F2335" s="32">
         <v>207</v>
@@ -55374,7 +55373,7 @@
         <v>124</v>
       </c>
       <c r="E2336" s="69" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="F2336" s="32">
         <v>207</v>
@@ -55394,7 +55393,7 @@
         <v>125</v>
       </c>
       <c r="E2337" s="69" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F2337" s="32">
         <v>207</v>
@@ -55414,7 +55413,7 @@
         <v>126</v>
       </c>
       <c r="E2338" s="69" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F2338" s="32">
         <v>207</v>
@@ -55434,7 +55433,7 @@
         <v>127</v>
       </c>
       <c r="E2339" s="69" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F2339" s="32">
         <v>207</v>
@@ -55454,7 +55453,7 @@
         <v>128</v>
       </c>
       <c r="E2340" s="69" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F2340" s="32">
         <v>207</v>
@@ -55474,7 +55473,7 @@
         <v>129</v>
       </c>
       <c r="E2341" s="69" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F2341" s="32">
         <v>207</v>
@@ -55494,7 +55493,7 @@
         <v>130</v>
       </c>
       <c r="E2342" s="69" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F2342" s="32">
         <v>207</v>
@@ -55514,7 +55513,7 @@
         <v>131</v>
       </c>
       <c r="E2343" s="69" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F2343" s="32">
         <v>207</v>
@@ -55534,7 +55533,7 @@
         <v>132</v>
       </c>
       <c r="E2344" s="69" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F2344" s="32">
         <v>207</v>
@@ -55554,7 +55553,7 @@
         <v>133</v>
       </c>
       <c r="E2345" s="69" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F2345" s="32">
         <v>207</v>
@@ -55574,7 +55573,7 @@
         <v>134</v>
       </c>
       <c r="E2346" s="69" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F2346" s="32">
         <v>207</v>
@@ -55614,7 +55613,7 @@
         <v>136</v>
       </c>
       <c r="E2348" s="69" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F2348" s="32">
         <v>207</v>
@@ -55634,7 +55633,7 @@
         <v>137</v>
       </c>
       <c r="E2349" s="69" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F2349" s="32">
         <v>207</v>
@@ -55654,7 +55653,7 @@
         <v>138</v>
       </c>
       <c r="E2350" s="69" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F2350" s="32">
         <v>207</v>
@@ -55674,7 +55673,7 @@
         <v>139</v>
       </c>
       <c r="E2351" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2351" s="32">
         <v>207</v>
@@ -55694,7 +55693,7 @@
         <v>140</v>
       </c>
       <c r="E2352" s="69" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F2352" s="32">
         <v>207</v>
@@ -55714,7 +55713,7 @@
         <v>141</v>
       </c>
       <c r="E2353" s="69" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F2353" s="32">
         <v>207</v>
@@ -55734,7 +55733,7 @@
         <v>142</v>
       </c>
       <c r="E2354" s="69" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F2354" s="32">
         <v>207</v>
@@ -55754,7 +55753,7 @@
         <v>143</v>
       </c>
       <c r="E2355" s="69" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F2355" s="32">
         <v>207</v>
@@ -55774,7 +55773,7 @@
         <v>144</v>
       </c>
       <c r="E2356" s="69" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F2356" s="32">
         <v>207</v>
@@ -55794,7 +55793,7 @@
         <v>145</v>
       </c>
       <c r="E2357" s="69" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="F2357" s="32">
         <v>207</v>
@@ -55814,7 +55813,7 @@
         <v>146</v>
       </c>
       <c r="E2358" s="69" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F2358" s="32">
         <v>207</v>
@@ -55834,7 +55833,7 @@
         <v>147</v>
       </c>
       <c r="E2359" s="69" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F2359" s="32">
         <v>207</v>
@@ -55854,7 +55853,7 @@
         <v>148</v>
       </c>
       <c r="E2360" s="69" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F2360" s="32">
         <v>207</v>
@@ -55874,7 +55873,7 @@
         <v>149</v>
       </c>
       <c r="E2361" s="69" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F2361" s="32">
         <v>207</v>
@@ -55894,7 +55893,7 @@
         <v>150</v>
       </c>
       <c r="E2362" s="69" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F2362" s="32">
         <v>207</v>
@@ -55914,7 +55913,7 @@
         <v>151</v>
       </c>
       <c r="E2363" s="69" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F2363" s="32">
         <v>207</v>
@@ -55934,7 +55933,7 @@
         <v>152</v>
       </c>
       <c r="E2364" s="69" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F2364" s="32">
         <v>207</v>
@@ -55954,7 +55953,7 @@
         <v>153</v>
       </c>
       <c r="E2365" s="69" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F2365" s="32">
         <v>207</v>
@@ -55974,7 +55973,7 @@
         <v>154</v>
       </c>
       <c r="E2366" s="69" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F2366" s="32">
         <v>207</v>
@@ -55994,7 +55993,7 @@
         <v>155</v>
       </c>
       <c r="E2367" s="69" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F2367" s="32">
         <v>207</v>
@@ -56014,7 +56013,7 @@
         <v>156</v>
       </c>
       <c r="E2368" s="69" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F2368" s="32">
         <v>207</v>
@@ -56034,7 +56033,7 @@
         <v>157</v>
       </c>
       <c r="E2369" s="69" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F2369" s="32">
         <v>207</v>
@@ -56054,7 +56053,7 @@
         <v>158</v>
       </c>
       <c r="E2370" s="69" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F2370" s="32">
         <v>207</v>
@@ -56074,7 +56073,7 @@
         <v>159</v>
       </c>
       <c r="E2371" s="69" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F2371" s="32">
         <v>207</v>
@@ -56094,7 +56093,7 @@
         <v>160</v>
       </c>
       <c r="E2372" s="69" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F2372" s="32">
         <v>207</v>
@@ -56114,7 +56113,7 @@
         <v>161</v>
       </c>
       <c r="E2373" s="69" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F2373" s="32">
         <v>207</v>
@@ -56134,7 +56133,7 @@
         <v>162</v>
       </c>
       <c r="E2374" s="69" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F2374" s="32">
         <v>207</v>
@@ -56154,7 +56153,7 @@
         <v>163</v>
       </c>
       <c r="E2375" s="69" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F2375" s="32">
         <v>207</v>
@@ -56174,7 +56173,7 @@
         <v>164</v>
       </c>
       <c r="E2376" s="69" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F2376" s="32">
         <v>207</v>
@@ -56194,7 +56193,7 @@
         <v>165</v>
       </c>
       <c r="E2377" s="69" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F2377" s="32">
         <v>207</v>
@@ -56214,7 +56213,7 @@
         <v>166</v>
       </c>
       <c r="E2378" s="69" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F2378" s="32">
         <v>207</v>
@@ -56234,7 +56233,7 @@
         <v>167</v>
       </c>
       <c r="E2379" s="69" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F2379" s="32">
         <v>207</v>
@@ -56254,7 +56253,7 @@
         <v>168</v>
       </c>
       <c r="E2380" s="69" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F2380" s="32">
         <v>207</v>
@@ -56274,7 +56273,7 @@
         <v>169</v>
       </c>
       <c r="E2381" s="69" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F2381" s="32">
         <v>207</v>
@@ -56294,7 +56293,7 @@
         <v>170</v>
       </c>
       <c r="E2382" s="69" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F2382" s="32">
         <v>207</v>
@@ -56314,7 +56313,7 @@
         <v>171</v>
       </c>
       <c r="E2383" s="69" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F2383" s="32">
         <v>207</v>
@@ -56374,7 +56373,7 @@
         <v>174</v>
       </c>
       <c r="E2386" s="69" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F2386" s="32">
         <v>207</v>
@@ -56394,7 +56393,7 @@
         <v>175</v>
       </c>
       <c r="E2387" s="69" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F2387" s="32">
         <v>207</v>
@@ -56414,7 +56413,7 @@
         <v>176</v>
       </c>
       <c r="E2388" s="69" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F2388" s="32">
         <v>207</v>
@@ -56434,7 +56433,7 @@
         <v>177</v>
       </c>
       <c r="E2389" s="69" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F2389" s="32">
         <v>207</v>
@@ -56454,7 +56453,7 @@
         <v>178</v>
       </c>
       <c r="E2390" s="69" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F2390" s="32">
         <v>207</v>
@@ -56474,7 +56473,7 @@
         <v>179</v>
       </c>
       <c r="E2391" s="69" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F2391" s="32">
         <v>207</v>
@@ -56514,7 +56513,7 @@
         <v>181</v>
       </c>
       <c r="E2393" s="69" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F2393" s="32">
         <v>207</v>
@@ -56534,7 +56533,7 @@
         <v>182</v>
       </c>
       <c r="E2394" s="69" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F2394" s="32">
         <v>207</v>
@@ -56554,7 +56553,7 @@
         <v>183</v>
       </c>
       <c r="E2395" s="69" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F2395" s="32">
         <v>207</v>
@@ -56574,7 +56573,7 @@
         <v>184</v>
       </c>
       <c r="E2396" s="69" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F2396" s="32">
         <v>207</v>
@@ -56594,7 +56593,7 @@
         <v>185</v>
       </c>
       <c r="E2397" s="69" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F2397" s="32">
         <v>207</v>
@@ -56614,7 +56613,7 @@
         <v>186</v>
       </c>
       <c r="E2398" s="69" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F2398" s="32">
         <v>207</v>
@@ -56634,7 +56633,7 @@
         <v>187</v>
       </c>
       <c r="E2399" s="69" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F2399" s="32">
         <v>207</v>
@@ -56654,7 +56653,7 @@
         <v>188</v>
       </c>
       <c r="E2400" s="69" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F2400" s="32">
         <v>207</v>
@@ -56674,7 +56673,7 @@
         <v>189</v>
       </c>
       <c r="E2401" s="69" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F2401" s="32">
         <v>207</v>
@@ -56694,7 +56693,7 @@
         <v>190</v>
       </c>
       <c r="E2402" s="69" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F2402" s="32">
         <v>207</v>
@@ -56714,7 +56713,7 @@
         <v>191</v>
       </c>
       <c r="E2403" s="69" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F2403" s="32">
         <v>207</v>
@@ -56734,7 +56733,7 @@
         <v>192</v>
       </c>
       <c r="E2404" s="69" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F2404" s="32">
         <v>207</v>
@@ -56754,7 +56753,7 @@
         <v>193</v>
       </c>
       <c r="E2405" s="69" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F2405" s="32">
         <v>207</v>
@@ -56774,7 +56773,7 @@
         <v>194</v>
       </c>
       <c r="E2406" s="69" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F2406" s="32">
         <v>207</v>
@@ -56794,7 +56793,7 @@
         <v>195</v>
       </c>
       <c r="E2407" s="69" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F2407" s="32">
         <v>207</v>
@@ -56814,7 +56813,7 @@
         <v>196</v>
       </c>
       <c r="E2408" s="69" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F2408" s="32">
         <v>207</v>
@@ -56834,7 +56833,7 @@
         <v>197</v>
       </c>
       <c r="E2409" s="69" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F2409" s="32">
         <v>207</v>
@@ -56854,7 +56853,7 @@
         <v>198</v>
       </c>
       <c r="E2410" s="69" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F2410" s="32">
         <v>207</v>
@@ -56874,7 +56873,7 @@
         <v>199</v>
       </c>
       <c r="E2411" s="69" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F2411" s="32">
         <v>207</v>
@@ -56894,7 +56893,7 @@
         <v>200</v>
       </c>
       <c r="E2412" s="69" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F2412" s="32">
         <v>207</v>
@@ -56914,7 +56913,7 @@
         <v>201</v>
       </c>
       <c r="E2413" s="69" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F2413" s="32">
         <v>207</v>
@@ -56934,7 +56933,7 @@
         <v>202</v>
       </c>
       <c r="E2414" s="69" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F2414" s="32">
         <v>207</v>
@@ -56954,7 +56953,7 @@
         <v>203</v>
       </c>
       <c r="E2415" s="69" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F2415" s="32">
         <v>207</v>
@@ -56974,7 +56973,7 @@
         <v>204</v>
       </c>
       <c r="E2416" s="69" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F2416" s="32">
         <v>207</v>
@@ -56994,7 +56993,7 @@
         <v>205</v>
       </c>
       <c r="E2417" s="69" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F2417" s="32">
         <v>207</v>
@@ -57014,7 +57013,7 @@
         <v>206</v>
       </c>
       <c r="E2418" s="69" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F2418" s="32">
         <v>207</v>
@@ -57034,7 +57033,7 @@
         <v>207</v>
       </c>
       <c r="E2419" s="69" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F2419" s="32">
         <v>207</v>
@@ -57054,7 +57053,7 @@
         <v>208</v>
       </c>
       <c r="E2420" s="69" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2420" s="32">
         <v>207</v>
@@ -57074,7 +57073,7 @@
         <v>209</v>
       </c>
       <c r="E2421" s="69" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2421" s="32">
         <v>207</v>
@@ -57094,7 +57093,7 @@
         <v>210</v>
       </c>
       <c r="E2422" s="69" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2422" s="32">
         <v>207</v>
@@ -57114,7 +57113,7 @@
         <v>211</v>
       </c>
       <c r="E2423" s="69" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2423" s="32">
         <v>207</v>
@@ -57134,7 +57133,7 @@
         <v>212</v>
       </c>
       <c r="E2424" s="69" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2424" s="32">
         <v>207</v>
@@ -57154,7 +57153,7 @@
         <v>213</v>
       </c>
       <c r="E2425" s="69" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2425" s="32">
         <v>207</v>
@@ -57174,7 +57173,7 @@
         <v>214</v>
       </c>
       <c r="E2426" s="69" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2426" s="32">
         <v>207</v>
@@ -57214,7 +57213,7 @@
         <v>216</v>
       </c>
       <c r="E2428" s="69" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F2428" s="32">
         <v>207</v>
@@ -57234,7 +57233,7 @@
         <v>217</v>
       </c>
       <c r="E2429" s="69" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F2429" s="32">
         <v>207</v>
@@ -57254,7 +57253,7 @@
         <v>218</v>
       </c>
       <c r="E2430" s="69" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="F2430" s="32">
         <v>207</v>
@@ -57274,7 +57273,7 @@
         <v>219</v>
       </c>
       <c r="E2431" s="69" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F2431" s="32">
         <v>207</v>
@@ -57294,7 +57293,7 @@
         <v>220</v>
       </c>
       <c r="E2432" s="69" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2432" s="32">
         <v>207</v>
@@ -57314,7 +57313,7 @@
         <v>221</v>
       </c>
       <c r="E2433" s="69" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F2433" s="32">
         <v>207</v>
@@ -57334,7 +57333,7 @@
         <v>222</v>
       </c>
       <c r="E2434" s="69" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F2434" s="32">
         <v>207</v>
@@ -57354,7 +57353,7 @@
         <v>223</v>
       </c>
       <c r="E2435" s="69" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F2435" s="32">
         <v>207</v>
@@ -57374,7 +57373,7 @@
         <v>224</v>
       </c>
       <c r="E2436" s="69" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F2436" s="32">
         <v>207</v>
@@ -57394,7 +57393,7 @@
         <v>225</v>
       </c>
       <c r="E2437" s="69" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F2437" s="32">
         <v>207</v>
@@ -57414,7 +57413,7 @@
         <v>226</v>
       </c>
       <c r="E2438" s="69" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2438" s="32">
         <v>207</v>
@@ -57434,7 +57433,7 @@
         <v>227</v>
       </c>
       <c r="E2439" s="69" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F2439" s="32">
         <v>207</v>
@@ -57454,7 +57453,7 @@
         <v>228</v>
       </c>
       <c r="E2440" s="69" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2440" s="32">
         <v>207</v>
@@ -57474,7 +57473,7 @@
         <v>229</v>
       </c>
       <c r="E2441" s="69" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="F2441" s="32">
         <v>207</v>
@@ -57494,7 +57493,7 @@
         <v>230</v>
       </c>
       <c r="E2442" s="69" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F2442" s="32">
         <v>207</v>
@@ -57514,7 +57513,7 @@
         <v>231</v>
       </c>
       <c r="E2443" s="69" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F2443" s="32">
         <v>207</v>
@@ -57534,7 +57533,7 @@
         <v>232</v>
       </c>
       <c r="E2444" s="69" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F2444" s="32">
         <v>207</v>
@@ -57554,7 +57553,7 @@
         <v>233</v>
       </c>
       <c r="E2445" s="69" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F2445" s="32">
         <v>207</v>
@@ -57574,7 +57573,7 @@
         <v>234</v>
       </c>
       <c r="E2446" s="69" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="F2446" s="32">
         <v>207</v>
@@ -57594,7 +57593,7 @@
         <v>235</v>
       </c>
       <c r="E2447" s="69" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F2447" s="32">
         <v>207</v>
@@ -57614,7 +57613,7 @@
         <v>236</v>
       </c>
       <c r="E2448" s="69" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2448" s="32">
         <v>207</v>
@@ -57634,7 +57633,7 @@
         <v>237</v>
       </c>
       <c r="E2449" s="69" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2449" s="32">
         <v>207</v>
@@ -57654,7 +57653,7 @@
         <v>238</v>
       </c>
       <c r="E2450" s="69" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F2450" s="32">
         <v>207</v>
@@ -57674,7 +57673,7 @@
         <v>239</v>
       </c>
       <c r="E2451" s="69" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F2451" s="32">
         <v>207</v>
@@ -57694,7 +57693,7 @@
         <v>240</v>
       </c>
       <c r="E2452" s="69" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F2452" s="32">
         <v>207</v>
@@ -57714,7 +57713,7 @@
         <v>241</v>
       </c>
       <c r="E2453" s="69" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F2453" s="32">
         <v>207</v>
@@ -57734,7 +57733,7 @@
         <v>242</v>
       </c>
       <c r="E2454" s="69" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F2454" s="32">
         <v>207</v>
@@ -57754,7 +57753,7 @@
         <v>243</v>
       </c>
       <c r="E2455" s="69" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F2455" s="32">
         <v>207</v>
@@ -57774,7 +57773,7 @@
         <v>244</v>
       </c>
       <c r="E2456" s="69" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2456" s="32">
         <v>207</v>
@@ -57814,7 +57813,7 @@
         <v>246</v>
       </c>
       <c r="E2458" s="69" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F2458" s="32">
         <v>207</v>
@@ -57834,7 +57833,7 @@
         <v>247</v>
       </c>
       <c r="E2459" s="69" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F2459" s="32">
         <v>207</v>
@@ -57854,7 +57853,7 @@
         <v>248</v>
       </c>
       <c r="E2460" s="69" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="F2460" s="32">
         <v>207</v>
@@ -57874,7 +57873,7 @@
         <v>249</v>
       </c>
       <c r="E2461" s="69" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F2461" s="32">
         <v>207</v>
@@ -57894,7 +57893,7 @@
         <v>250</v>
       </c>
       <c r="E2462" s="69" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F2462" s="32">
         <v>207</v>
@@ -57914,7 +57913,7 @@
         <v>251</v>
       </c>
       <c r="E2463" s="69" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F2463" s="32">
         <v>207</v>
@@ -57934,7 +57933,7 @@
         <v>252</v>
       </c>
       <c r="E2464" s="69" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F2464" s="32">
         <v>207</v>
@@ -57954,7 +57953,7 @@
         <v>253</v>
       </c>
       <c r="E2465" s="69" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F2465" s="32">
         <v>207</v>
@@ -57974,7 +57973,7 @@
         <v>254</v>
       </c>
       <c r="E2466" s="69" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F2466" s="32">
         <v>207</v>
@@ -57994,7 +57993,7 @@
         <v>255</v>
       </c>
       <c r="E2467" s="69" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F2467" s="32">
         <v>207</v>
@@ -58014,7 +58013,7 @@
         <v>256</v>
       </c>
       <c r="E2468" s="69" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F2468" s="32">
         <v>207</v>
@@ -58034,7 +58033,7 @@
         <v>257</v>
       </c>
       <c r="E2469" s="69" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F2469" s="32">
         <v>207</v>
@@ -58054,7 +58053,7 @@
         <v>258</v>
       </c>
       <c r="E2470" s="69" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F2470" s="32">
         <v>207</v>
@@ -58074,7 +58073,7 @@
         <v>259</v>
       </c>
       <c r="E2471" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F2471" s="32">
         <v>207</v>
@@ -58094,7 +58093,7 @@
         <v>260</v>
       </c>
       <c r="E2472" s="69" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="F2472" s="32">
         <v>207</v>
@@ -58114,7 +58113,7 @@
         <v>261</v>
       </c>
       <c r="E2473" s="69" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F2473" s="32">
         <v>207</v>
@@ -58134,7 +58133,7 @@
         <v>262</v>
       </c>
       <c r="E2474" s="69" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F2474" s="32">
         <v>207</v>
@@ -58154,7 +58153,7 @@
         <v>263</v>
       </c>
       <c r="E2475" s="69" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F2475" s="32">
         <v>207</v>
@@ -58174,7 +58173,7 @@
         <v>264</v>
       </c>
       <c r="E2476" s="69" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F2476" s="32">
         <v>207</v>
@@ -58194,7 +58193,7 @@
         <v>265</v>
       </c>
       <c r="E2477" s="69" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F2477" s="32">
         <v>207</v>
@@ -58214,7 +58213,7 @@
         <v>266</v>
       </c>
       <c r="E2478" s="69" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F2478" s="32">
         <v>207</v>
@@ -58234,7 +58233,7 @@
         <v>267</v>
       </c>
       <c r="E2479" s="69" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F2479" s="32">
         <v>207</v>
@@ -58254,7 +58253,7 @@
         <v>268</v>
       </c>
       <c r="E2480" s="69" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F2480" s="32">
         <v>207</v>
@@ -58274,7 +58273,7 @@
         <v>269</v>
       </c>
       <c r="E2481" s="69" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F2481" s="32">
         <v>207</v>
@@ -58294,7 +58293,7 @@
         <v>270</v>
       </c>
       <c r="E2482" s="69" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F2482" s="32">
         <v>207</v>
@@ -58314,7 +58313,7 @@
         <v>271</v>
       </c>
       <c r="E2483" s="69" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F2483" s="32">
         <v>207</v>
@@ -58334,7 +58333,7 @@
         <v>272</v>
       </c>
       <c r="E2484" s="69" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F2484" s="32">
         <v>207</v>
@@ -58354,7 +58353,7 @@
         <v>273</v>
       </c>
       <c r="E2485" s="69" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F2485" s="32">
         <v>207</v>
@@ -58374,7 +58373,7 @@
         <v>274</v>
       </c>
       <c r="E2486" s="69" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F2486" s="32">
         <v>207</v>
@@ -58394,7 +58393,7 @@
         <v>275</v>
       </c>
       <c r="E2487" s="69" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F2487" s="32">
         <v>207</v>
@@ -58414,7 +58413,7 @@
         <v>276</v>
       </c>
       <c r="E2488" s="69" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F2488" s="32">
         <v>207</v>
@@ -58434,7 +58433,7 @@
         <v>277</v>
       </c>
       <c r="E2489" s="69" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F2489" s="32">
         <v>207</v>
@@ -58454,7 +58453,7 @@
         <v>278</v>
       </c>
       <c r="E2490" s="69" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F2490" s="32">
         <v>207</v>
@@ -58474,7 +58473,7 @@
         <v>279</v>
       </c>
       <c r="E2491" s="69" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F2491" s="32">
         <v>207</v>
@@ -58494,7 +58493,7 @@
         <v>280</v>
       </c>
       <c r="E2492" s="74" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F2492" s="35">
         <v>207</v>
@@ -58514,7 +58513,7 @@
         <v>-48</v>
       </c>
       <c r="E2493" s="62" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F2493" s="37">
         <v>208</v>
@@ -58534,7 +58533,7 @@
         <v>-47</v>
       </c>
       <c r="E2494" s="62" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F2494" s="37">
         <v>208</v>
@@ -58554,7 +58553,7 @@
         <v>-46</v>
       </c>
       <c r="E2495" s="62" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F2495" s="37">
         <v>208</v>
@@ -58574,7 +58573,7 @@
         <v>-45</v>
       </c>
       <c r="E2496" s="62" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F2496" s="37">
         <v>208</v>
@@ -58594,7 +58593,7 @@
         <v>-44</v>
       </c>
       <c r="E2497" s="62" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F2497" s="37">
         <v>208</v>
@@ -58614,7 +58613,7 @@
         <v>-41</v>
       </c>
       <c r="E2498" s="62" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F2498" s="37">
         <v>208</v>
@@ -58634,7 +58633,7 @@
         <v>-40</v>
       </c>
       <c r="E2499" s="62" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F2499" s="37">
         <v>208</v>
@@ -58654,7 +58653,7 @@
         <v>-39</v>
       </c>
       <c r="E2500" s="62" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F2500" s="37">
         <v>208</v>
@@ -58674,7 +58673,7 @@
         <v>-38</v>
       </c>
       <c r="E2501" s="62" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F2501" s="37">
         <v>208</v>
@@ -58694,7 +58693,7 @@
         <v>-37</v>
       </c>
       <c r="E2502" s="62" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="F2502" s="37">
         <v>208</v>
@@ -58714,7 +58713,7 @@
         <v>-34</v>
       </c>
       <c r="E2503" s="62" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F2503" s="37">
         <v>208</v>
@@ -58734,7 +58733,7 @@
         <v>-33</v>
       </c>
       <c r="E2504" s="62" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F2504" s="37">
         <v>208</v>
@@ -58754,7 +58753,7 @@
         <v>-32</v>
       </c>
       <c r="E2505" s="62" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F2505" s="37">
         <v>208</v>
@@ -58774,7 +58773,7 @@
         <v>-31</v>
       </c>
       <c r="E2506" s="62" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F2506" s="37">
         <v>208</v>
@@ -58794,7 +58793,7 @@
         <v>-30</v>
       </c>
       <c r="E2507" s="62" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="F2507" s="37">
         <v>208</v>
@@ -58814,7 +58813,7 @@
         <v>-27</v>
       </c>
       <c r="E2508" s="62" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="F2508" s="37">
         <v>208</v>
@@ -58834,7 +58833,7 @@
         <v>-26</v>
       </c>
       <c r="E2509" s="62" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F2509" s="37">
         <v>208</v>
@@ -58854,7 +58853,7 @@
         <v>-25</v>
       </c>
       <c r="E2510" s="62" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F2510" s="37">
         <v>208</v>
@@ -58874,7 +58873,7 @@
         <v>-24</v>
       </c>
       <c r="E2511" s="62" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F2511" s="37">
         <v>208</v>
@@ -58894,7 +58893,7 @@
         <v>-23</v>
       </c>
       <c r="E2512" s="62" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F2512" s="37">
         <v>208</v>
@@ -58914,7 +58913,7 @@
         <v>-20</v>
       </c>
       <c r="E2513" s="62" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F2513" s="37">
         <v>208</v>
@@ -58934,7 +58933,7 @@
         <v>-19</v>
       </c>
       <c r="E2514" s="62" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F2514" s="37">
         <v>208</v>
@@ -58954,7 +58953,7 @@
         <v>-18</v>
       </c>
       <c r="E2515" s="62" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F2515" s="37">
         <v>208</v>
@@ -58974,7 +58973,7 @@
         <v>-17</v>
       </c>
       <c r="E2516" s="62" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F2516" s="37">
         <v>208</v>
@@ -58994,7 +58993,7 @@
         <v>-16</v>
       </c>
       <c r="E2517" s="62" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F2517" s="37">
         <v>208</v>
@@ -59014,7 +59013,7 @@
         <v>-13</v>
       </c>
       <c r="E2518" s="62" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F2518" s="37">
         <v>208</v>
@@ -59034,7 +59033,7 @@
         <v>-12</v>
       </c>
       <c r="E2519" s="62" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F2519" s="37">
         <v>208</v>
@@ -59054,7 +59053,7 @@
         <v>-11</v>
       </c>
       <c r="E2520" s="62" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="F2520" s="37">
         <v>208</v>
@@ -59074,7 +59073,7 @@
         <v>-10</v>
       </c>
       <c r="E2521" s="62" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F2521" s="37">
         <v>208</v>
@@ -59094,7 +59093,7 @@
         <v>-9</v>
       </c>
       <c r="E2522" s="62" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F2522" s="37">
         <v>208</v>
@@ -59114,7 +59113,7 @@
         <v>-2</v>
       </c>
       <c r="E2523" s="62" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="F2523" s="37">
         <v>208</v>
@@ -59134,7 +59133,7 @@
         <v>0</v>
       </c>
       <c r="E2524" s="62" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F2524" s="37">
         <v>208</v>
@@ -59154,7 +59153,7 @@
         <v>-41</v>
       </c>
       <c r="E2525" s="62" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="F2525" s="10">
         <v>206</v>
@@ -59174,7 +59173,7 @@
         <v>-40</v>
       </c>
       <c r="E2526" s="50" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F2526">
         <v>206</v>
@@ -59194,7 +59193,7 @@
         <v>-39</v>
       </c>
       <c r="E2527" s="50" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="F2527">
         <v>206</v>
@@ -59214,7 +59213,7 @@
         <v>-38</v>
       </c>
       <c r="E2528" s="50" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F2528">
         <v>206</v>
@@ -59234,7 +59233,7 @@
         <v>-37</v>
       </c>
       <c r="E2529" s="50" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F2529">
         <v>206</v>
@@ -59254,7 +59253,7 @@
         <v>-34</v>
       </c>
       <c r="E2530" s="50" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="F2530">
         <v>206</v>
@@ -59274,7 +59273,7 @@
         <v>-33</v>
       </c>
       <c r="E2531" s="50" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="F2531">
         <v>206</v>
@@ -59294,7 +59293,7 @@
         <v>-32</v>
       </c>
       <c r="E2532" s="50" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="F2532">
         <v>206</v>
@@ -59314,7 +59313,7 @@
         <v>-31</v>
       </c>
       <c r="E2533" s="50" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F2533">
         <v>206</v>
@@ -59334,7 +59333,7 @@
         <v>-30</v>
       </c>
       <c r="E2534" s="50" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="F2534">
         <v>206</v>
@@ -59354,7 +59353,7 @@
         <v>-27</v>
       </c>
       <c r="E2535" s="50" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F2535">
         <v>206</v>
@@ -59374,7 +59373,7 @@
         <v>-26</v>
       </c>
       <c r="E2536" s="50" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="F2536">
         <v>206</v>
@@ -59394,7 +59393,7 @@
         <v>-25</v>
       </c>
       <c r="E2537" s="50" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F2537">
         <v>206</v>
@@ -59414,7 +59413,7 @@
         <v>-24</v>
       </c>
       <c r="E2538" s="50" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="F2538">
         <v>206</v>
@@ -59434,7 +59433,7 @@
         <v>-23</v>
       </c>
       <c r="E2539" s="50" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F2539">
         <v>206</v>
@@ -59454,7 +59453,7 @@
         <v>-20</v>
       </c>
       <c r="E2540" s="50" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F2540">
         <v>206</v>
@@ -59474,7 +59473,7 @@
         <v>-19</v>
       </c>
       <c r="E2541" s="50" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F2541">
         <v>206</v>
@@ -59494,7 +59493,7 @@
         <v>-18</v>
       </c>
       <c r="E2542" s="50" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F2542">
         <v>206</v>
@@ -59514,7 +59513,7 @@
         <v>-17</v>
       </c>
       <c r="E2543" s="50" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F2543">
         <v>206</v>
@@ -59534,7 +59533,7 @@
         <v>-16</v>
       </c>
       <c r="E2544" s="50" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F2544">
         <v>206</v>
@@ -59554,7 +59553,7 @@
         <v>-13</v>
       </c>
       <c r="E2545" s="50" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F2545">
         <v>206</v>
@@ -59574,7 +59573,7 @@
         <v>-12</v>
       </c>
       <c r="E2546" s="50" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F2546">
         <v>206</v>
@@ -59594,7 +59593,7 @@
         <v>-11</v>
       </c>
       <c r="E2547" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="F2547">
         <v>206</v>
@@ -59614,7 +59613,7 @@
         <v>-10</v>
       </c>
       <c r="E2548" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="F2548">
         <v>206</v>
@@ -59634,7 +59633,7 @@
         <v>-9</v>
       </c>
       <c r="E2549" s="50" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F2549">
         <v>206</v>
@@ -59654,10 +59653,10 @@
         <v>-3</v>
       </c>
       <c r="E2550" s="50" t="s">
-        <v>2278</v>
+        <v>2441</v>
       </c>
       <c r="F2550">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2551" spans="1:6">
@@ -59674,7 +59673,7 @@
         <v>-2</v>
       </c>
       <c r="E2551" s="50" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="F2551">
         <v>201</v>
@@ -59694,7 +59693,7 @@
         <v>-2</v>
       </c>
       <c r="E2552" s="50" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="F2552">
         <v>203</v>
@@ -59714,7 +59713,7 @@
         <v>-2</v>
       </c>
       <c r="E2553" s="50" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="F2553">
         <v>206</v>
@@ -59734,7 +59733,7 @@
         <v>-2</v>
       </c>
       <c r="E2554" s="50" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="F2554">
         <v>209</v>
@@ -59754,7 +59753,7 @@
         <v>-50</v>
       </c>
       <c r="E2555" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2555">
         <v>302</v>
@@ -59774,7 +59773,7 @@
         <v>-49</v>
       </c>
       <c r="E2556" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="F2556">
         <v>302</v>
@@ -59794,7 +59793,7 @@
         <v>-48</v>
       </c>
       <c r="E2557" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2557">
         <v>302</v>
@@ -59814,7 +59813,7 @@
         <v>-47</v>
       </c>
       <c r="E2558" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="F2558">
         <v>302</v>
@@ -59834,7 +59833,7 @@
         <v>-46</v>
       </c>
       <c r="E2559" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F2559">
         <v>302</v>
@@ -59854,7 +59853,7 @@
         <v>-45</v>
       </c>
       <c r="E2560" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2560">
         <v>302</v>
@@ -59874,7 +59873,7 @@
         <v>-44</v>
       </c>
       <c r="E2561" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F2561">
         <v>302</v>
@@ -59894,7 +59893,7 @@
         <v>-43</v>
       </c>
       <c r="E2562" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2562">
         <v>302</v>
@@ -59914,7 +59913,7 @@
         <v>-42</v>
       </c>
       <c r="E2563" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F2563">
         <v>302</v>
@@ -59934,7 +59933,7 @@
         <v>-41</v>
       </c>
       <c r="E2564" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2564">
         <v>302</v>
@@ -59954,7 +59953,7 @@
         <v>-40</v>
       </c>
       <c r="E2565" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F2565">
         <v>302</v>
@@ -59974,7 +59973,7 @@
         <v>-39</v>
       </c>
       <c r="E2566" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F2566">
         <v>302</v>
@@ -59994,7 +59993,7 @@
         <v>-38</v>
       </c>
       <c r="E2567" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F2567">
         <v>302</v>
@@ -60014,7 +60013,7 @@
         <v>-37</v>
       </c>
       <c r="E2568" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2568">
         <v>302</v>
@@ -60034,7 +60033,7 @@
         <v>-36</v>
       </c>
       <c r="E2569" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2569">
         <v>302</v>
@@ -60054,7 +60053,7 @@
         <v>-35</v>
       </c>
       <c r="E2570" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F2570">
         <v>302</v>
@@ -60074,7 +60073,7 @@
         <v>-34</v>
       </c>
       <c r="E2571" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2571">
         <v>302</v>
@@ -60094,7 +60093,7 @@
         <v>-33</v>
       </c>
       <c r="E2572" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F2572">
         <v>302</v>
@@ -60114,7 +60113,7 @@
         <v>-32</v>
       </c>
       <c r="E2573" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F2573">
         <v>302</v>
@@ -60134,7 +60133,7 @@
         <v>-31</v>
       </c>
       <c r="E2574" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F2574">
         <v>302</v>
@@ -60154,7 +60153,7 @@
         <v>-30</v>
       </c>
       <c r="E2575" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2575">
         <v>302</v>
@@ -60174,7 +60173,7 @@
         <v>-29</v>
       </c>
       <c r="E2576" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2576">
         <v>302</v>
@@ -60194,7 +60193,7 @@
         <v>-28</v>
       </c>
       <c r="E2577" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F2577">
         <v>302</v>
@@ -60214,7 +60213,7 @@
         <v>-27</v>
       </c>
       <c r="E2578" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2578">
         <v>302</v>
@@ -60234,7 +60233,7 @@
         <v>-26</v>
       </c>
       <c r="E2579" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F2579">
         <v>302</v>
@@ -60254,7 +60253,7 @@
         <v>-25</v>
       </c>
       <c r="E2580" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F2580">
         <v>302</v>
@@ -60274,7 +60273,7 @@
         <v>-24</v>
       </c>
       <c r="E2581" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F2581">
         <v>302</v>
@@ -60294,7 +60293,7 @@
         <v>-23</v>
       </c>
       <c r="E2582" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2582">
         <v>302</v>
@@ -60314,7 +60313,7 @@
         <v>-22</v>
       </c>
       <c r="E2583" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2583">
         <v>302</v>
@@ -60334,7 +60333,7 @@
         <v>-21</v>
       </c>
       <c r="E2584" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F2584">
         <v>302</v>
@@ -60354,7 +60353,7 @@
         <v>-20</v>
       </c>
       <c r="E2585" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2585">
         <v>302</v>
@@ -60374,7 +60373,7 @@
         <v>-19</v>
       </c>
       <c r="E2586" s="83" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F2586" s="83">
         <v>302</v>
@@ -60394,7 +60393,7 @@
         <v>-18</v>
       </c>
       <c r="E2587" s="83" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="F2587" s="83">
         <v>302</v>
@@ -60414,7 +60413,7 @@
         <v>-17</v>
       </c>
       <c r="E2588" s="83" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2588" s="83">
         <v>302</v>
@@ -60434,7 +60433,7 @@
         <v>-16</v>
       </c>
       <c r="E2589" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2589">
         <v>302</v>
@@ -60454,7 +60453,7 @@
         <v>-15</v>
       </c>
       <c r="E2590" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2590">
         <v>302</v>
@@ -60474,7 +60473,7 @@
         <v>-14</v>
       </c>
       <c r="E2591" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F2591">
         <v>302</v>
@@ -60494,7 +60493,7 @@
         <v>-13</v>
       </c>
       <c r="E2592" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2592">
         <v>302</v>
@@ -60514,7 +60513,7 @@
         <v>-12</v>
       </c>
       <c r="E2593" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F2593">
         <v>302</v>
@@ -60534,7 +60533,7 @@
         <v>-11</v>
       </c>
       <c r="E2594" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F2594">
         <v>302</v>
@@ -60554,7 +60553,7 @@
         <v>-10</v>
       </c>
       <c r="E2595" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F2595">
         <v>302</v>
@@ -60574,7 +60573,7 @@
         <v>-9</v>
       </c>
       <c r="E2596" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2596">
         <v>302</v>
@@ -60594,7 +60593,7 @@
         <v>-8</v>
       </c>
       <c r="E2597" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="F2597">
         <v>302</v>
@@ -60614,7 +60613,7 @@
         <v>-7</v>
       </c>
       <c r="E2598" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="F2598">
         <v>302</v>
@@ -60634,7 +60633,7 @@
         <v>-6</v>
       </c>
       <c r="E2599" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2599">
         <v>302</v>
@@ -60654,7 +60653,7 @@
         <v>-5</v>
       </c>
       <c r="E2600" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F2600">
         <v>302</v>
@@ -60674,7 +60673,7 @@
         <v>-4</v>
       </c>
       <c r="E2601" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="F2601">
         <v>302</v>
@@ -60694,7 +60693,7 @@
         <v>6</v>
       </c>
       <c r="E2602" s="85" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2602" s="85">
         <v>302</v>
@@ -60714,7 +60713,7 @@
         <v>7</v>
       </c>
       <c r="E2603" s="86" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="F2603" s="86">
         <v>302</v>
@@ -60734,7 +60733,7 @@
         <v>8</v>
       </c>
       <c r="E2604" s="85" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F2604" s="85">
         <v>302</v>
@@ -60754,7 +60753,7 @@
         <v>9</v>
       </c>
       <c r="E2605" s="85" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="F2605" s="85">
         <v>302</v>
@@ -60774,7 +60773,7 @@
         <v>10</v>
       </c>
       <c r="E2606" s="85" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="F2606" s="85">
         <v>302</v>
@@ -60794,7 +60793,7 @@
         <v>11</v>
       </c>
       <c r="E2607" s="85" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="F2607" s="85">
         <v>302</v>
@@ -60814,7 +60813,7 @@
         <v>12</v>
       </c>
       <c r="E2608" s="85" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F2608" s="85">
         <v>302</v>
@@ -60834,7 +60833,7 @@
         <v>331</v>
       </c>
       <c r="E2609" s="87" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2609" s="87">
         <v>302</v>
@@ -60854,7 +60853,7 @@
         <v>332</v>
       </c>
       <c r="E2610" s="87" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F2610" s="87">
         <v>302</v>
@@ -60874,7 +60873,7 @@
         <v>333</v>
       </c>
       <c r="E2611" s="87" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F2611" s="87">
         <v>302</v>
@@ -60894,7 +60893,7 @@
         <v>356</v>
       </c>
       <c r="E2612" s="88" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F2612" s="88">
         <v>302</v>
@@ -60914,7 +60913,7 @@
         <v>357</v>
       </c>
       <c r="E2613" s="88" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="F2613" s="88">
         <v>302</v>
@@ -60934,7 +60933,7 @@
         <v>358</v>
       </c>
       <c r="E2614" s="88" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F2614" s="88">
         <v>302</v>
@@ -60954,7 +60953,7 @@
         <v>359</v>
       </c>
       <c r="E2615" s="88" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="F2615" s="88">
         <v>302</v>
@@ -60974,7 +60973,7 @@
         <v>360</v>
       </c>
       <c r="E2616" s="88" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F2616" s="88">
         <v>302</v>
@@ -60994,7 +60993,7 @@
         <v>361</v>
       </c>
       <c r="E2617" s="88" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F2617" s="88">
         <v>302</v>
@@ -61014,7 +61013,7 @@
         <v>362</v>
       </c>
       <c r="E2618" s="88" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F2618" s="88">
         <v>302</v>
@@ -61034,7 +61033,7 @@
         <v>-50</v>
       </c>
       <c r="E2619" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2619" s="89">
         <v>308</v>
@@ -61054,7 +61053,7 @@
         <v>-48</v>
       </c>
       <c r="E2620" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2620">
         <v>308</v>
@@ -61074,7 +61073,7 @@
         <v>-47</v>
       </c>
       <c r="E2621" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2621">
         <v>308</v>
@@ -61094,7 +61093,7 @@
         <v>-46</v>
       </c>
       <c r="E2622" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2622">
         <v>308</v>
@@ -61114,7 +61113,7 @@
         <v>-45</v>
       </c>
       <c r="E2623" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2623">
         <v>308</v>
@@ -61134,7 +61133,7 @@
         <v>-44</v>
       </c>
       <c r="E2624" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2624">
         <v>308</v>
@@ -61154,7 +61153,7 @@
         <v>-43</v>
       </c>
       <c r="E2625" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2625">
         <v>308</v>
@@ -61174,7 +61173,7 @@
         <v>-41</v>
       </c>
       <c r="E2626" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2626">
         <v>308</v>
@@ -61194,7 +61193,7 @@
         <v>-40</v>
       </c>
       <c r="E2627" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2627">
         <v>308</v>
@@ -61214,7 +61213,7 @@
         <v>-39</v>
       </c>
       <c r="E2628" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2628">
         <v>308</v>
@@ -61234,7 +61233,7 @@
         <v>-38</v>
       </c>
       <c r="E2629" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2629">
         <v>308</v>
@@ -61254,7 +61253,7 @@
         <v>-37</v>
       </c>
       <c r="E2630" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2630">
         <v>308</v>
@@ -61274,7 +61273,7 @@
         <v>-36</v>
       </c>
       <c r="E2631" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2631">
         <v>308</v>
@@ -61294,7 +61293,7 @@
         <v>-34</v>
       </c>
       <c r="E2632" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2632">
         <v>308</v>
@@ -61314,7 +61313,7 @@
         <v>-33</v>
       </c>
       <c r="E2633" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2633">
         <v>308</v>
@@ -61334,7 +61333,7 @@
         <v>-32</v>
       </c>
       <c r="E2634" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2634">
         <v>308</v>
@@ -61354,7 +61353,7 @@
         <v>-31</v>
       </c>
       <c r="E2635" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2635">
         <v>308</v>
@@ -61374,7 +61373,7 @@
         <v>-30</v>
       </c>
       <c r="E2636" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2636">
         <v>308</v>
@@ -61394,7 +61393,7 @@
         <v>-29</v>
       </c>
       <c r="E2637" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2637">
         <v>308</v>
@@ -61414,7 +61413,7 @@
         <v>-27</v>
       </c>
       <c r="E2638" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2638">
         <v>308</v>
@@ -61434,7 +61433,7 @@
         <v>-26</v>
       </c>
       <c r="E2639" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2639">
         <v>308</v>
@@ -61454,7 +61453,7 @@
         <v>-25</v>
       </c>
       <c r="E2640" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2640">
         <v>308</v>
@@ -61474,7 +61473,7 @@
         <v>-24</v>
       </c>
       <c r="E2641" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2641">
         <v>308</v>
@@ -61494,7 +61493,7 @@
         <v>-23</v>
       </c>
       <c r="E2642" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2642">
         <v>308</v>
@@ -61514,7 +61513,7 @@
         <v>-22</v>
       </c>
       <c r="E2643" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2643">
         <v>308</v>
@@ -61534,7 +61533,7 @@
         <v>-20</v>
       </c>
       <c r="E2644" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2644">
         <v>308</v>
@@ -61554,7 +61553,7 @@
         <v>-19</v>
       </c>
       <c r="E2645" s="83" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2645" s="83">
         <v>308</v>
@@ -61574,7 +61573,7 @@
         <v>-18</v>
       </c>
       <c r="E2646" s="83" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2646" s="83">
         <v>308</v>
@@ -61594,7 +61593,7 @@
         <v>-17</v>
       </c>
       <c r="E2647" s="83" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2647" s="83">
         <v>308</v>
@@ -61614,7 +61613,7 @@
         <v>-16</v>
       </c>
       <c r="E2648" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2648">
         <v>308</v>
@@ -61634,7 +61633,7 @@
         <v>-15</v>
       </c>
       <c r="E2649" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2649">
         <v>308</v>
@@ -61654,7 +61653,7 @@
         <v>-13</v>
       </c>
       <c r="E2650" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2650">
         <v>308</v>
@@ -61674,7 +61673,7 @@
         <v>-12</v>
       </c>
       <c r="E2651" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2651">
         <v>308</v>
@@ -61694,7 +61693,7 @@
         <v>-11</v>
       </c>
       <c r="E2652" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2652">
         <v>308</v>
@@ -61714,7 +61713,7 @@
         <v>-10</v>
       </c>
       <c r="E2653" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2653">
         <v>308</v>
@@ -61734,7 +61733,7 @@
         <v>-9</v>
       </c>
       <c r="E2654" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2654">
         <v>308</v>
@@ -61754,7 +61753,7 @@
         <v>-8</v>
       </c>
       <c r="E2655" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2655">
         <v>308</v>
@@ -61774,7 +61773,7 @@
         <v>-6</v>
       </c>
       <c r="E2656" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2656">
         <v>308</v>
@@ -61794,7 +61793,7 @@
         <v>-5</v>
       </c>
       <c r="E2657" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2657">
         <v>308</v>
@@ -61814,7 +61813,7 @@
         <v>-4</v>
       </c>
       <c r="E2658" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2658">
         <v>308</v>
@@ -61834,7 +61833,7 @@
         <v>6</v>
       </c>
       <c r="E2659" s="85" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2659" s="85">
         <v>308</v>
@@ -61854,7 +61853,7 @@
         <v>8</v>
       </c>
       <c r="E2660" s="85" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F2660" s="85">
         <v>308</v>
@@ -61874,7 +61873,7 @@
         <v>9</v>
       </c>
       <c r="E2661" s="85" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2661" s="85">
         <v>308</v>
@@ -61894,7 +61893,7 @@
         <v>10</v>
       </c>
       <c r="E2662" s="85" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2662" s="85">
         <v>308</v>
@@ -61914,7 +61913,7 @@
         <v>11</v>
       </c>
       <c r="E2663" s="85" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2663" s="85">
         <v>308</v>
@@ -61934,7 +61933,7 @@
         <v>12</v>
       </c>
       <c r="E2664" s="85" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2664" s="85">
         <v>308</v>
@@ -61954,7 +61953,7 @@
         <v>331</v>
       </c>
       <c r="E2665" s="87" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2665" s="87">
         <v>308</v>
@@ -61974,7 +61973,7 @@
         <v>356</v>
       </c>
       <c r="E2666" s="88" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F2666" s="88">
         <v>308</v>
@@ -61994,7 +61993,7 @@
         <v>358</v>
       </c>
       <c r="E2667" s="88" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2667" s="88">
         <v>308</v>
@@ -62014,7 +62013,7 @@
         <v>359</v>
       </c>
       <c r="E2668" s="88" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2668" s="88">
         <v>308</v>
@@ -62034,7 +62033,7 @@
         <v>360</v>
       </c>
       <c r="E2669" s="88" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2669" s="88">
         <v>308</v>
@@ -62054,7 +62053,7 @@
         <v>361</v>
       </c>
       <c r="E2670" s="88" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2670" s="88">
         <v>308</v>
@@ -62074,7 +62073,7 @@
         <v>362</v>
       </c>
       <c r="E2671" s="88" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2671" s="88">
         <v>308</v>
@@ -62094,7 +62093,7 @@
         <v>-47</v>
       </c>
       <c r="E2672" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2672">
         <v>301</v>
@@ -62114,7 +62113,7 @@
         <v>-46</v>
       </c>
       <c r="E2673" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F2673">
         <v>301</v>
@@ -62134,7 +62133,7 @@
         <v>-45</v>
       </c>
       <c r="E2674" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2674">
         <v>301</v>
@@ -62154,7 +62153,7 @@
         <v>-40</v>
       </c>
       <c r="E2675" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2675">
         <v>301</v>
@@ -62174,7 +62173,7 @@
         <v>-39</v>
       </c>
       <c r="E2676" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F2676">
         <v>301</v>
@@ -62194,7 +62193,7 @@
         <v>-38</v>
       </c>
       <c r="E2677" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2677">
         <v>301</v>
@@ -62214,7 +62213,7 @@
         <v>-33</v>
       </c>
       <c r="E2678" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2678">
         <v>301</v>
@@ -62234,7 +62233,7 @@
         <v>-32</v>
       </c>
       <c r="E2679" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F2679">
         <v>301</v>
@@ -62254,7 +62253,7 @@
         <v>-31</v>
       </c>
       <c r="E2680" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2680">
         <v>301</v>
@@ -62274,7 +62273,7 @@
         <v>-26</v>
       </c>
       <c r="E2681" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2681">
         <v>301</v>
@@ -62294,7 +62293,7 @@
         <v>-25</v>
       </c>
       <c r="E2682" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F2682">
         <v>301</v>
@@ -62314,7 +62313,7 @@
         <v>-24</v>
       </c>
       <c r="E2683" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2683">
         <v>301</v>
@@ -62334,7 +62333,7 @@
         <v>-19</v>
       </c>
       <c r="E2684" s="83" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2684" s="83">
         <v>301</v>
@@ -62354,7 +62353,7 @@
         <v>-18</v>
       </c>
       <c r="E2685" s="83" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2685" s="83">
         <v>301</v>
@@ -62374,7 +62373,7 @@
         <v>-12</v>
       </c>
       <c r="E2686" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2686">
         <v>301</v>
@@ -62394,7 +62393,7 @@
         <v>-11</v>
       </c>
       <c r="E2687" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F2687">
         <v>301</v>
@@ -62414,7 +62413,7 @@
         <v>-10</v>
       </c>
       <c r="E2688" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2688">
         <v>301</v>
@@ -62434,7 +62433,7 @@
         <v>332</v>
       </c>
       <c r="E2689" s="87" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F2689" s="87">
         <v>301</v>
@@ -62454,7 +62453,7 @@
         <v>333</v>
       </c>
       <c r="E2690" s="87" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2690" s="87">
         <v>301</v>
@@ -62474,7 +62473,7 @@
         <v>-48</v>
       </c>
       <c r="E2691" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2691">
         <v>303</v>
@@ -62494,7 +62493,7 @@
         <v>-47</v>
       </c>
       <c r="E2692" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2692">
         <v>303</v>
@@ -62514,7 +62513,7 @@
         <v>-46</v>
       </c>
       <c r="E2693" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2693">
         <v>303</v>
@@ -62534,7 +62533,7 @@
         <v>-45</v>
       </c>
       <c r="E2694" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2694">
         <v>303</v>
@@ -62554,7 +62553,7 @@
         <v>-44</v>
       </c>
       <c r="E2695" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2695">
         <v>303</v>
@@ -62574,7 +62573,7 @@
         <v>-41</v>
       </c>
       <c r="E2696" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2696">
         <v>303</v>
@@ -62594,7 +62593,7 @@
         <v>-40</v>
       </c>
       <c r="E2697" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2697">
         <v>303</v>
@@ -62614,7 +62613,7 @@
         <v>-39</v>
       </c>
       <c r="E2698" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2698">
         <v>303</v>
@@ -62634,7 +62633,7 @@
         <v>-38</v>
       </c>
       <c r="E2699" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2699">
         <v>303</v>
@@ -62654,7 +62653,7 @@
         <v>-37</v>
       </c>
       <c r="E2700" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2700">
         <v>303</v>
@@ -62674,7 +62673,7 @@
         <v>-34</v>
       </c>
       <c r="E2701" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2701">
         <v>303</v>
@@ -62694,7 +62693,7 @@
         <v>-33</v>
       </c>
       <c r="E2702" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2702">
         <v>303</v>
@@ -62714,7 +62713,7 @@
         <v>-32</v>
       </c>
       <c r="E2703" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2703">
         <v>303</v>
@@ -62734,7 +62733,7 @@
         <v>-31</v>
       </c>
       <c r="E2704" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2704">
         <v>303</v>
@@ -62754,7 +62753,7 @@
         <v>-30</v>
       </c>
       <c r="E2705" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2705">
         <v>303</v>
@@ -62774,7 +62773,7 @@
         <v>-27</v>
       </c>
       <c r="E2706" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2706">
         <v>303</v>
@@ -62794,7 +62793,7 @@
         <v>-26</v>
       </c>
       <c r="E2707" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2707">
         <v>303</v>
@@ -62814,7 +62813,7 @@
         <v>-25</v>
       </c>
       <c r="E2708" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2708">
         <v>303</v>
@@ -62834,7 +62833,7 @@
         <v>-24</v>
       </c>
       <c r="E2709" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2709">
         <v>303</v>
@@ -62854,7 +62853,7 @@
         <v>-23</v>
       </c>
       <c r="E2710" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2710">
         <v>303</v>
@@ -62874,7 +62873,7 @@
         <v>-20</v>
       </c>
       <c r="E2711" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2711">
         <v>303</v>
@@ -62894,7 +62893,7 @@
         <v>-19</v>
       </c>
       <c r="E2712" s="83" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2712">
         <v>303</v>
@@ -62914,7 +62913,7 @@
         <v>-18</v>
       </c>
       <c r="E2713" s="83" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2713">
         <v>303</v>
@@ -62934,7 +62933,7 @@
         <v>-17</v>
       </c>
       <c r="E2714" s="83" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2714">
         <v>303</v>
@@ -62954,7 +62953,7 @@
         <v>-16</v>
       </c>
       <c r="E2715" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2715">
         <v>303</v>
@@ -62974,7 +62973,7 @@
         <v>-13</v>
       </c>
       <c r="E2716" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2716">
         <v>303</v>
@@ -62994,7 +62993,7 @@
         <v>-12</v>
       </c>
       <c r="E2717" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2717">
         <v>303</v>
@@ -63014,7 +63013,7 @@
         <v>-11</v>
       </c>
       <c r="E2718" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2718">
         <v>303</v>
@@ -63034,7 +63033,7 @@
         <v>-10</v>
       </c>
       <c r="E2719" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2719">
         <v>303</v>
@@ -63054,7 +63053,7 @@
         <v>-9</v>
       </c>
       <c r="E2720" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2720">
         <v>303</v>
@@ -63074,7 +63073,7 @@
         <v>-6</v>
       </c>
       <c r="E2721" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F2721">
         <v>303</v>
@@ -63094,7 +63093,7 @@
         <v>-5</v>
       </c>
       <c r="E2722" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2722">
         <v>303</v>
@@ -63114,7 +63113,7 @@
         <v>-4</v>
       </c>
       <c r="E2723" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F2723">
         <v>303</v>
@@ -63134,7 +63133,7 @@
         <v>331</v>
       </c>
       <c r="E2724" s="87" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2724">
         <v>303</v>
@@ -63154,7 +63153,7 @@
         <v>332</v>
       </c>
       <c r="E2725" s="87" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F2725">
         <v>303</v>
@@ -63174,7 +63173,7 @@
         <v>333</v>
       </c>
       <c r="E2726" s="87" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2726">
         <v>303</v>
@@ -63194,7 +63193,7 @@
         <v>-48</v>
       </c>
       <c r="E2727" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2727">
         <v>306</v>
@@ -63214,7 +63213,7 @@
         <v>-47</v>
       </c>
       <c r="E2728" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2728">
         <v>306</v>
@@ -63234,7 +63233,7 @@
         <v>-46</v>
       </c>
       <c r="E2729" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2729">
         <v>306</v>
@@ -63254,7 +63253,7 @@
         <v>-45</v>
       </c>
       <c r="E2730" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2730">
         <v>306</v>
@@ -63274,7 +63273,7 @@
         <v>-44</v>
       </c>
       <c r="E2731" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2731">
         <v>306</v>
@@ -63294,7 +63293,7 @@
         <v>-41</v>
       </c>
       <c r="E2732" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2732">
         <v>306</v>
@@ -63314,7 +63313,7 @@
         <v>-40</v>
       </c>
       <c r="E2733" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2733">
         <v>306</v>
@@ -63334,7 +63333,7 @@
         <v>-39</v>
       </c>
       <c r="E2734" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2734">
         <v>306</v>
@@ -63354,7 +63353,7 @@
         <v>-38</v>
       </c>
       <c r="E2735" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2735">
         <v>306</v>
@@ -63374,7 +63373,7 @@
         <v>-37</v>
       </c>
       <c r="E2736" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2736">
         <v>306</v>
@@ -63394,7 +63393,7 @@
         <v>-34</v>
       </c>
       <c r="E2737" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2737">
         <v>306</v>
@@ -63414,7 +63413,7 @@
         <v>-33</v>
       </c>
       <c r="E2738" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2738">
         <v>306</v>
@@ -63434,7 +63433,7 @@
         <v>-32</v>
       </c>
       <c r="E2739" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2739">
         <v>306</v>
@@ -63454,7 +63453,7 @@
         <v>-31</v>
       </c>
       <c r="E2740" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2740">
         <v>306</v>
@@ -63474,7 +63473,7 @@
         <v>-30</v>
       </c>
       <c r="E2741" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2741">
         <v>306</v>
@@ -63494,7 +63493,7 @@
         <v>-27</v>
       </c>
       <c r="E2742" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2742">
         <v>306</v>
@@ -63514,7 +63513,7 @@
         <v>-26</v>
       </c>
       <c r="E2743" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2743">
         <v>306</v>
@@ -63534,7 +63533,7 @@
         <v>-25</v>
       </c>
       <c r="E2744" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2744">
         <v>306</v>
@@ -63554,7 +63553,7 @@
         <v>-24</v>
       </c>
       <c r="E2745" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2745">
         <v>306</v>
@@ -63574,7 +63573,7 @@
         <v>-23</v>
       </c>
       <c r="E2746" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2746">
         <v>306</v>
@@ -63594,7 +63593,7 @@
         <v>-20</v>
       </c>
       <c r="E2747" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2747">
         <v>306</v>
@@ -63614,7 +63613,7 @@
         <v>-19</v>
       </c>
       <c r="E2748" s="83" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2748">
         <v>306</v>
@@ -63634,7 +63633,7 @@
         <v>-18</v>
       </c>
       <c r="E2749" s="83" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2749">
         <v>306</v>
@@ -63654,7 +63653,7 @@
         <v>-17</v>
       </c>
       <c r="E2750" s="83" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F2750">
         <v>306</v>
@@ -63674,7 +63673,7 @@
         <v>-16</v>
       </c>
       <c r="E2751" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2751">
         <v>306</v>
@@ -63694,7 +63693,7 @@
         <v>-13</v>
       </c>
       <c r="E2752" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2752">
         <v>306</v>
@@ -63714,7 +63713,7 @@
         <v>-12</v>
       </c>
       <c r="E2753" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2753">
         <v>306</v>
@@ -63734,7 +63733,7 @@
         <v>-11</v>
       </c>
       <c r="E2754" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2754">
         <v>306</v>
@@ -63754,7 +63753,7 @@
         <v>-10</v>
       </c>
       <c r="E2755" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2755">
         <v>306</v>
@@ -63774,7 +63773,7 @@
         <v>-9</v>
       </c>
       <c r="E2756" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2756">
         <v>306</v>
@@ -63794,7 +63793,7 @@
         <v>-6</v>
       </c>
       <c r="E2757" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F2757">
         <v>306</v>
@@ -63814,7 +63813,7 @@
         <v>-5</v>
       </c>
       <c r="E2758" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F2758">
         <v>306</v>
@@ -63834,7 +63833,7 @@
         <v>-4</v>
       </c>
       <c r="E2759" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F2759">
         <v>306</v>
@@ -63854,7 +63853,7 @@
         <v>331</v>
       </c>
       <c r="E2760" s="87" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F2760">
         <v>306</v>
@@ -63874,7 +63873,7 @@
         <v>332</v>
       </c>
       <c r="E2761" s="87" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F2761">
         <v>306</v>
@@ -63894,7 +63893,7 @@
         <v>333</v>
       </c>
       <c r="E2762" s="87" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2762">
         <v>306</v>
@@ -63914,7 +63913,7 @@
         <v>-48</v>
       </c>
       <c r="E2763" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2763">
         <v>309</v>
@@ -63934,7 +63933,7 @@
         <v>-47</v>
       </c>
       <c r="E2764" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2764">
         <v>309</v>
@@ -63954,7 +63953,7 @@
         <v>-46</v>
       </c>
       <c r="E2765" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2765">
         <v>309</v>
@@ -63974,7 +63973,7 @@
         <v>-45</v>
       </c>
       <c r="E2766" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2766">
         <v>309</v>
@@ -63994,7 +63993,7 @@
         <v>-41</v>
       </c>
       <c r="E2767" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2767">
         <v>309</v>
@@ -64014,7 +64013,7 @@
         <v>-40</v>
       </c>
       <c r="E2768" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2768">
         <v>309</v>
@@ -64034,7 +64033,7 @@
         <v>-39</v>
       </c>
       <c r="E2769" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2769">
         <v>309</v>
@@ -64054,7 +64053,7 @@
         <v>-38</v>
       </c>
       <c r="E2770" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2770">
         <v>309</v>
@@ -64074,7 +64073,7 @@
         <v>-34</v>
       </c>
       <c r="E2771" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2771">
         <v>309</v>
@@ -64094,7 +64093,7 @@
         <v>-33</v>
       </c>
       <c r="E2772" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2772">
         <v>309</v>
@@ -64114,7 +64113,7 @@
         <v>-32</v>
       </c>
       <c r="E2773" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2773">
         <v>309</v>
@@ -64134,7 +64133,7 @@
         <v>-31</v>
       </c>
       <c r="E2774" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2774">
         <v>309</v>
@@ -64154,7 +64153,7 @@
         <v>-27</v>
       </c>
       <c r="E2775" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2775">
         <v>309</v>
@@ -64174,7 +64173,7 @@
         <v>-26</v>
       </c>
       <c r="E2776" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2776">
         <v>309</v>
@@ -64194,7 +64193,7 @@
         <v>-25</v>
       </c>
       <c r="E2777" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2777">
         <v>309</v>
@@ -64214,7 +64213,7 @@
         <v>-24</v>
       </c>
       <c r="E2778" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2778">
         <v>309</v>
@@ -64234,7 +64233,7 @@
         <v>-20</v>
       </c>
       <c r="E2779" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2779">
         <v>309</v>
@@ -64254,7 +64253,7 @@
         <v>-19</v>
       </c>
       <c r="E2780" s="83" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F2780">
         <v>309</v>
@@ -64274,7 +64273,7 @@
         <v>-18</v>
       </c>
       <c r="E2781" s="83" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F2781">
         <v>309</v>
@@ -64294,7 +64293,7 @@
         <v>-17</v>
       </c>
       <c r="E2782" s="83" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F2782">
         <v>309</v>
@@ -64314,7 +64313,7 @@
         <v>-13</v>
       </c>
       <c r="E2783" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F2783">
         <v>309</v>
@@ -64334,7 +64333,7 @@
         <v>-12</v>
       </c>
       <c r="E2784" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F2784">
         <v>309</v>
@@ -64354,7 +64353,7 @@
         <v>-11</v>
       </c>
       <c r="E2785" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2785">
         <v>309</v>
@@ -64374,7 +64373,7 @@
         <v>-10</v>
       </c>
       <c r="E2786" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2786">
         <v>309</v>
@@ -64394,7 +64393,7 @@
         <v>331</v>
       </c>
       <c r="E2787" s="87" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F2787">
         <v>309</v>
@@ -64414,7 +64413,7 @@
         <v>332</v>
       </c>
       <c r="E2788" s="87" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F2788">
         <v>309</v>
@@ -64434,7 +64433,7 @@
         <v>333</v>
       </c>
       <c r="E2789" s="87" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F2789">
         <v>309</v>
@@ -64451,10 +64450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1721"/>
+  <dimension ref="A1:C1720"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64536,7 +64535,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -64610,7 +64609,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="90" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
@@ -64649,47 +64648,47 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4">
-        <v>209</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>1787</v>
+      <c r="A28" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>208</v>
+      <c r="A29" s="47" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2209</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -64705,7 +64704,7 @@
         <v>2202</v>
       </c>
       <c r="C31" t="s">
-        <v>2211</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -64713,7 +64712,7 @@
         <v>2203</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -64721,7 +64720,7 @@
         <v>2204</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -64729,21 +64728,21 @@
         <v>2205</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="47" t="s">
         <v>2206</v>
       </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="47" t="s">
         <v>2207</v>
       </c>
+      <c r="C36" t="s">
+        <v>2211</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="47" t="s">
@@ -64753,144 +64752,141 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="47" t="s">
-        <v>2209</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2213</v>
-      </c>
+    <row r="39" spans="1:3">
+      <c r="A39" s="90" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="90" t="s">
-        <v>2326</v>
-      </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
+      <c r="A40" s="4">
+        <v>301</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>1782</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4">
-        <v>309</v>
-      </c>
-      <c r="C46" s="21" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="21">
+      <c r="C48" s="16" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>732</v>
+      <c r="B49" s="4" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>733</v>
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="12">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>734</v>
+      <c r="B51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>754</v>
+      <c r="B52" s="19">
+        <v>-2</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="19">
-        <v>-2</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="48">
+      <c r="B53" s="48">
         <v>-3</v>
       </c>
-      <c r="C54" s="48" t="s">
-        <v>2214</v>
+      <c r="C53" s="48" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -64989,8 +64985,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -65029,8 +65025,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -65763,13 +65759,13 @@
       <c r="A234" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
@@ -65787,17 +65783,17 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="14" t="s">
-        <v>208</v>
-      </c>
+      <c r="A240" s="14"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="14"/>
+      <c r="A241" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="4" t="s">
@@ -66533,13 +66529,13 @@
       <c r="A388" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B388" s="10"/>
+      <c r="C388" s="10"/>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B389" s="10"/>
-      <c r="C389" s="10"/>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="4" t="s">
@@ -66557,12 +66553,12 @@
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="4" t="s">
+      <c r="A393" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394" s="14" t="s">
+      <c r="A394" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -68140,13 +68136,13 @@
       <c r="A709" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B709" s="10"/>
+      <c r="C709" s="10"/>
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B710" s="10"/>
-      <c r="C710" s="10"/>
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="4" t="s">
@@ -68347,13 +68343,13 @@
       <c r="A750" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B750" s="10"/>
+      <c r="C750" s="10"/>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B751" s="10"/>
-      <c r="C751" s="10"/>
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="4" t="s">
@@ -68444,6 +68440,8 @@
       <c r="A769" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B769" s="10"/>
+      <c r="C769" s="10"/>
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="4" t="s">
@@ -68512,8 +68510,6 @@
       <c r="A779" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B779" s="10"/>
-      <c r="C779" s="10"/>
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="4" t="s">
@@ -68921,16 +68917,16 @@
       </c>
     </row>
     <row r="861" spans="1:3">
-      <c r="A861" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="A861" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B861" s="10"/>
+      <c r="C861" s="10"/>
     </row>
     <row r="862" spans="1:3">
-      <c r="A862" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B862" s="10"/>
-      <c r="C862" s="10"/>
+      <c r="A862" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="4" t="s">
@@ -69228,16 +69224,16 @@
       </c>
     </row>
     <row r="922" spans="1:3">
-      <c r="A922" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="A922" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B922" s="10"/>
+      <c r="C922" s="10"/>
     </row>
     <row r="923" spans="1:3">
-      <c r="A923" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B923" s="10"/>
-      <c r="C923" s="10"/>
+      <c r="A923" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="924" spans="1:3">
       <c r="A924" s="4" t="s">
@@ -70130,16 +70126,16 @@
       </c>
     </row>
     <row r="1102" spans="1:3">
-      <c r="A1102" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="A1102" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1102" s="10"/>
+      <c r="C1102" s="10"/>
     </row>
     <row r="1103" spans="1:3">
-      <c r="A1103" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1103" s="10"/>
-      <c r="C1103" s="10"/>
+      <c r="A1103" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="1104" spans="1:3">
       <c r="A1104" s="4" t="s">
@@ -72571,10 +72567,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1590" spans="1:1">
-      <c r="A1590" s="4" t="s">
-        <v>208</v>
-      </c>
+    <row r="1647" spans="1:1">
+      <c r="A1647"/>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648"/>
@@ -72664,7 +72658,9 @@
       <c r="A1676"/>
     </row>
     <row r="1677" spans="1:3">
-      <c r="A1677"/>
+      <c r="A1677" s="10"/>
+      <c r="B1677" s="10"/>
+      <c r="C1677" s="10"/>
     </row>
     <row r="1678" spans="1:3">
       <c r="A1678" s="10"/>
@@ -72677,9 +72673,7 @@
       <c r="C1679" s="10"/>
     </row>
     <row r="1680" spans="1:3">
-      <c r="A1680" s="10"/>
-      <c r="B1680" s="10"/>
-      <c r="C1680" s="10"/>
+      <c r="A1680"/>
     </row>
     <row r="1681" spans="1:1">
       <c r="A1681"/>
@@ -72705,8 +72699,8 @@
     <row r="1688" spans="1:1">
       <c r="A1688"/>
     </row>
-    <row r="1689" spans="1:1">
-      <c r="A1689"/>
+    <row r="1700" spans="1:1">
+      <c r="A1700"/>
     </row>
     <row r="1701" spans="1:1">
       <c r="A1701"/>
@@ -72766,17 +72760,14 @@
       <c r="A1719"/>
     </row>
     <row r="1720" spans="1:1">
-      <c r="A1720"/>
-    </row>
-    <row r="1721" spans="1:1">
-      <c r="A1721" s="4" t="s">
+      <c r="A1720" s="4" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
